--- a/output/tuning/aggregate-metrics.xlsx
+++ b/output/tuning/aggregate-metrics.xlsx
@@ -173,7 +173,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5.206736</t>
+          <t>5.206736 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -215,7 +215,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>5.238001</t>
+          <t>5.238001 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -257,7 +257,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.864527</t>
+          <t>4.864527 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -299,7 +299,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>5.767773</t>
+          <t>5.767773 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -341,7 +341,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>5.228952</t>
+          <t>5.228952 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -383,7 +383,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.759056</t>
+          <t>4.759056 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>5.637633</t>
+          <t>5.637633 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.306551</t>
+          <t>5.306551 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.329427</t>
+          <t>5.329427 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>5.238984</t>
+          <t>5.238984 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -583,8 +583,10 @@
       <c r="F13">
         <v>0.707657793042269</v>
       </c>
-      <c r="G13">
-        <v>4.759056</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.7590560000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -610,8 +612,10 @@
       <c r="F14">
         <v>0.717675940847817</v>
       </c>
-      <c r="G14">
-        <v>5.767773</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>5.767773 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -637,8 +641,10 @@
       <c r="F15">
         <v>0.713258464441766</v>
       </c>
-      <c r="G15">
-        <v>5.257764</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5.2577640000000008 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -664,8 +670,10 @@
       <c r="F16">
         <v>0.713846952082553</v>
       </c>
-      <c r="G16">
-        <v>5.2384925</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>5.2384924999999996 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -691,8 +699,10 @@
       <c r="F17">
         <v>0.0032507848352757</v>
       </c>
-      <c r="G17">
-        <v>0.286259961278206</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.28625996127820602 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -779,7 +789,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.638309</t>
+          <t>6.638309 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -821,7 +831,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.257881</t>
+          <t>6.257881 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -863,7 +873,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6.622301</t>
+          <t>6.622301 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -905,7 +915,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6.395517</t>
+          <t>6.395517 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -947,7 +957,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6.583335</t>
+          <t>6.583335 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -989,7 +999,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.248503</t>
+          <t>6.248503 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1031,7 +1041,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6.403854</t>
+          <t>6.403854 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1073,7 +1083,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.11147</t>
+          <t>6.11147 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1115,7 +1125,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6.196692</t>
+          <t>6.196692 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1157,7 +1167,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6.2606</t>
+          <t>6.2606 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1189,8 +1199,10 @@
       <c r="F13">
         <v>0.372533652382876</v>
       </c>
-      <c r="G13">
-        <v>6.11147</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6.1114699999999997 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1216,8 +1228,10 @@
       <c r="F14">
         <v>0.38118693135695</v>
       </c>
-      <c r="G14">
-        <v>6.638309</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6.6383089999999996 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1243,8 +1257,10 @@
       <c r="F15">
         <v>0.375761387452351</v>
       </c>
-      <c r="G15">
-        <v>6.3718462</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6.3718462000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1270,8 +1286,10 @@
       <c r="F16">
         <v>0.375029567751953</v>
       </c>
-      <c r="G16">
-        <v>6.3280585</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6.3280585 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1297,8 +1315,10 @@
       <c r="F17">
         <v>0.00238463546753278</v>
       </c>
-      <c r="G17">
-        <v>0.178632146407527</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.17863214640752653 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1405,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>41.78142</t>
+          <t>41.78142 secs</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -1427,7 +1447,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>45.84779</t>
+          <t>45.84779 secs</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -1469,7 +1489,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>32.22903</t>
+          <t>32.22903 secs</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1511,7 +1531,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>39.55543</t>
+          <t>39.55543 secs</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1553,7 +1573,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>39.1243</t>
+          <t>39.1243 secs</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1595,7 +1615,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>38.03332</t>
+          <t>38.03332 secs</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1637,7 +1657,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40.60293</t>
+          <t>40.60293 secs</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1679,7 +1699,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>33.06073</t>
+          <t>33.06073 secs</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1721,7 +1741,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>38.39676</t>
+          <t>38.39676 secs</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1763,7 +1783,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>34.72846</t>
+          <t>34.72846 secs</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1795,8 +1815,10 @@
       <c r="F13">
         <v>0.341642630366687</v>
       </c>
-      <c r="G13">
-        <v>32.22903</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>32.229030000000002 secs</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -1822,8 +1844,10 @@
       <c r="F14">
         <v>0.345428585911619</v>
       </c>
-      <c r="G14">
-        <v>45.84779</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>45.847790000000003 secs</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -1849,8 +1873,10 @@
       <c r="F15">
         <v>0.343448197196868</v>
       </c>
-      <c r="G15">
-        <v>38.336017</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>38.336016999999998 secs</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1876,8 +1902,10 @@
       <c r="F16">
         <v>0.343640527451959</v>
       </c>
-      <c r="G16">
-        <v>38.76053</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>38.760530000000003 secs</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1903,8 +1931,10 @@
       <c r="F17">
         <v>0.00107776159619647</v>
       </c>
-      <c r="G17">
-        <v>3.92146036551194</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.9214603655119356 secs</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +2021,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.166594</t>
+          <t>3.166594 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2033,7 +2063,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.938511</t>
+          <t>2.938511 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2075,7 +2105,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.937681</t>
+          <t>2.937681 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2117,7 +2147,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.957832</t>
+          <t>2.957832 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2159,7 +2189,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3.023184</t>
+          <t>3.023184 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2201,7 +2231,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.035422</t>
+          <t>3.035422 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2243,7 +2273,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.810849</t>
+          <t>2.810849 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2285,7 +2315,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.435353</t>
+          <t>2.435353 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2327,7 +2357,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.641852</t>
+          <t>2.641852 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2369,7 +2399,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.48651</t>
+          <t>3.48651 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2401,8 +2431,10 @@
       <c r="F13">
         <v>0.341642728983947</v>
       </c>
-      <c r="G13">
-        <v>2.435353</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.4353530000000001 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2428,8 +2460,10 @@
       <c r="F14">
         <v>0.345428585911619</v>
       </c>
-      <c r="G14">
-        <v>3.48651</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.48651 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2455,8 +2489,10 @@
       <c r="F15">
         <v>0.343437395723411</v>
       </c>
-      <c r="G15">
-        <v>2.9433788</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.9433788000000001 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2482,8 +2518,10 @@
       <c r="F16">
         <v>0.343640527451959</v>
       </c>
-      <c r="G16">
-        <v>2.9481715</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.9481714999999999 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2509,8 +2547,10 @@
       <c r="F17">
         <v>0.00106916551916027</v>
       </c>
-      <c r="G17">
-        <v>0.269535744271813</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.26953574427181265 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2597,7 +2637,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.279686</t>
+          <t>8.279686 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2639,7 +2679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.029281</t>
+          <t>8.029281 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -2681,7 +2721,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7.955025</t>
+          <t>7.955025 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -2723,7 +2763,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.341951</t>
+          <t>8.341951 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -2765,7 +2805,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.31592</t>
+          <t>8.31592 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2807,7 +2847,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.382031</t>
+          <t>6.382031 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2849,7 +2889,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.902107</t>
+          <t>7.902107 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -2891,7 +2931,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8.505076</t>
+          <t>8.505076 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -2933,7 +2973,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8.538207</t>
+          <t>8.538207 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -2975,7 +3015,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.38083</t>
+          <t>8.38083 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3007,8 +3047,10 @@
       <c r="F13">
         <v>0.439471190511104</v>
       </c>
-      <c r="G13">
-        <v>6.382031</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6.3820309999999996 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3034,8 +3076,10 @@
       <c r="F14">
         <v>0.453764629163879</v>
       </c>
-      <c r="G14">
-        <v>8.538207</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8.5382069999999999 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -3061,8 +3105,10 @@
       <c r="F15">
         <v>0.444182749111369</v>
       </c>
-      <c r="G15">
-        <v>8.0630114</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>8.0630113999999988 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3088,8 +3134,10 @@
       <c r="F16">
         <v>0.443715963224428</v>
       </c>
-      <c r="G16">
-        <v>8.297803</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>8.297803 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -3115,8 +3163,10 @@
       <c r="F17">
         <v>0.00405735971504747</v>
       </c>
-      <c r="G17">
-        <v>0.597941695119048</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.59794169511904771 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3203,7 +3253,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>40.44736</t>
+          <t>40.44736 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3245,7 +3295,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>34.31904</t>
+          <t>34.31904 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3287,7 +3337,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>41.93811</t>
+          <t>41.93811 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3329,7 +3379,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>54.12583</t>
+          <t>54.12583 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3371,7 +3421,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>42.20098</t>
+          <t>42.20098 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3413,7 +3463,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.08545</t>
+          <t>1.08545 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -3455,7 +3505,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>51.47683</t>
+          <t>51.47683 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -3497,7 +3547,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>55.17962</t>
+          <t>55.17962 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3539,7 +3589,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>46.22107</t>
+          <t>46.22107 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -3581,7 +3631,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>43.11539</t>
+          <t>43.11539 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -3613,8 +3663,10 @@
       <c r="F13">
         <v>0.38335326847904</v>
       </c>
-      <c r="G13">
-        <v>1.08545</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.08545 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -3640,8 +3692,10 @@
       <c r="F14">
         <v>0.425509080391817</v>
       </c>
-      <c r="G14">
-        <v>55.17962</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>55.17962 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -3667,8 +3721,10 @@
       <c r="F15">
         <v>0.40068611919108</v>
       </c>
-      <c r="G15">
-        <v>41.010968</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>41.010968000000005 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3694,8 +3750,10 @@
       <c r="F16">
         <v>0.397637295621459</v>
       </c>
-      <c r="G16">
-        <v>42.658185</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>42.658185000000003 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -3721,8 +3779,10 @@
       <c r="F17">
         <v>0.013698623864727</v>
       </c>
-      <c r="G17">
-        <v>14.680873917227</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>14.680873917226997 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +3869,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.999864</t>
+          <t>8.999864 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3851,7 +3911,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9.322177</t>
+          <t>9.322177 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -3893,7 +3953,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.097737</t>
+          <t>8.097737 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3935,7 +3995,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.8841</t>
+          <t>10.8841 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -3977,7 +4037,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.338612</t>
+          <t>8.338612 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -4019,7 +4079,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10.18259</t>
+          <t>10.18259 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4061,7 +4121,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.712162</t>
+          <t>7.712162 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4103,7 +4163,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8.177707</t>
+          <t>8.177707 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4145,7 +4205,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.50646</t>
+          <t>10.50646 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4187,7 +4247,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.001417</t>
+          <t>8.001417 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4219,8 +4279,10 @@
       <c r="F13">
         <v>0.440079056236661</v>
       </c>
-      <c r="G13">
-        <v>7.712162</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7.7121620000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -4246,8 +4308,10 @@
       <c r="F14">
         <v>0.465339949048842</v>
       </c>
-      <c r="G14">
-        <v>10.8841</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>10.8841 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -4273,8 +4337,10 @@
       <c r="F15">
         <v>0.448205124104481</v>
       </c>
-      <c r="G15">
-        <v>9.0222826</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9.0222826000000005 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -4300,8 +4366,10 @@
       <c r="F16">
         <v>0.446362198414077</v>
       </c>
-      <c r="G16">
-        <v>8.669238</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>8.669238 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -4327,8 +4395,10 @@
       <c r="F17">
         <v>0.00796757634943676</v>
       </c>
-      <c r="G17">
-        <v>1.09087027884127</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0908702788412745 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4415,7 +4485,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>7.861813</t>
+          <t>7.861813 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -4457,7 +4527,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.74268</t>
+          <t>4.74268 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -4499,7 +4569,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.062836</t>
+          <t>8.062836 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -4541,7 +4611,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7.715909</t>
+          <t>7.715909 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -4583,7 +4653,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.971247</t>
+          <t>7.971247 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -4625,7 +4695,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7.380443</t>
+          <t>7.380443 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -4667,7 +4737,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7.734685</t>
+          <t>7.734685 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -4709,7 +4779,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8.221899</t>
+          <t>8.221899 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -4751,7 +4821,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8.176081</t>
+          <t>8.176081 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -4793,7 +4863,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.086863</t>
+          <t>8.086863 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -4825,8 +4895,10 @@
       <c r="F13">
         <v>0.390351060459837</v>
       </c>
-      <c r="G13">
-        <v>4.74268</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.74268 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -4852,8 +4924,10 @@
       <c r="F14">
         <v>0.401029274713452</v>
       </c>
-      <c r="G14">
-        <v>8.221899</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8.2218990000000005 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -4879,8 +4953,10 @@
       <c r="F15">
         <v>0.396174357289704</v>
       </c>
-      <c r="G15">
-        <v>7.5954456</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7.5954455999999997 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -4906,8 +4982,10 @@
       <c r="F16">
         <v>0.397151383109079</v>
       </c>
-      <c r="G16">
-        <v>7.91653</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>7.9165299999999998 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -4933,8 +5011,10 @@
       <c r="F17">
         <v>0.00337143243691881</v>
       </c>
-      <c r="G17">
-        <v>0.980821145212847</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.98082114521284669 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5021,7 +5101,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.111601</t>
+          <t>1.111601 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5063,7 +5143,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.368738</t>
+          <t>1.368738 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5105,7 +5185,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.111997</t>
+          <t>1.111997 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -5147,7 +5227,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.344127</t>
+          <t>1.344127 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5189,7 +5269,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.407418</t>
+          <t>1.407418 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5231,7 +5311,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.217716</t>
+          <t>1.217716 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5273,7 +5353,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.252031</t>
+          <t>1.252031 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5315,7 +5395,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.093517</t>
+          <t>1.093517 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -5357,7 +5437,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.232873</t>
+          <t>1.232873 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -5399,7 +5479,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.041952</t>
+          <t>1.041952 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -5431,8 +5511,10 @@
       <c r="F13">
         <v>0.364452419406325</v>
       </c>
-      <c r="G13">
-        <v>1.041952</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.041952 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -5458,8 +5540,10 @@
       <c r="F14">
         <v>0.39974408169656</v>
       </c>
-      <c r="G14">
-        <v>1.407418</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4074180000000001 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -5485,8 +5569,10 @@
       <c r="F15">
         <v>0.385195993935147</v>
       </c>
-      <c r="G15">
-        <v>1.218197</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.218197 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -5512,8 +5598,10 @@
       <c r="F16">
         <v>0.387602706922276</v>
       </c>
-      <c r="G16">
-        <v>1.2252945</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2252945 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -5539,8 +5627,10 @@
       <c r="F17">
         <v>0.0108660809828629</v>
       </c>
-      <c r="G17">
-        <v>0.12038872453681</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.12038872453681036 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5627,7 +5717,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.725249</t>
+          <t>1.725249 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -5669,7 +5759,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.725249</t>
+          <t>1.725249 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -5711,7 +5801,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.725249</t>
+          <t>1.725249 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -5753,7 +5843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.725249</t>
+          <t>1.725249 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -5795,7 +5885,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.725249</t>
+          <t>1.725249 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -5837,7 +5927,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.639378</t>
+          <t>1.639378 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -5879,7 +5969,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.639378</t>
+          <t>1.639378 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -5921,7 +6011,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.639378</t>
+          <t>1.639378 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -5963,7 +6053,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.639378</t>
+          <t>1.639378 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6005,7 +6095,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.639378</t>
+          <t>1.639378 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6037,8 +6127,10 @@
       <c r="F13">
         <v>0.292893218813453</v>
       </c>
-      <c r="G13">
-        <v>1.639378</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.639378 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -6064,8 +6156,10 @@
       <c r="F14">
         <v>0.29335719893692</v>
       </c>
-      <c r="G14">
-        <v>1.725249</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.725249 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -6091,8 +6185,10 @@
       <c r="F15">
         <v>0.293125208875187</v>
       </c>
-      <c r="G15">
-        <v>1.6823135</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6823135 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -6118,8 +6214,10 @@
       <c r="F16">
         <v>0.293125208875187</v>
       </c>
-      <c r="G16">
-        <v>1.6823135</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6823135 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -6145,8 +6243,10 @@
       <c r="F17">
         <v>0.000231990061733522</v>
       </c>
-      <c r="G17">
-        <v>0.0429355</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.042935500000000015 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6233,7 +6333,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.048833</t>
+          <t>1.048833 days</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6275,7 +6375,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.048833</t>
+          <t>1.048833 days</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6317,7 +6417,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.048833</t>
+          <t>1.048833 days</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6359,7 +6459,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.048833</t>
+          <t>1.048833 days</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6401,7 +6501,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.048833</t>
+          <t>1.048833 days</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6443,7 +6543,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23.03836</t>
+          <t>23.03836 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6485,7 +6585,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23.03836</t>
+          <t>23.03836 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -6527,7 +6627,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23.03836</t>
+          <t>23.03836 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -6569,7 +6669,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23.03836</t>
+          <t>23.03836 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6611,7 +6711,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23.03836</t>
+          <t>23.03836 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6643,8 +6743,10 @@
       <c r="F13">
         <v>0.37035597916388</v>
       </c>
-      <c r="G13">
-        <v>1.048833</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0488329999999999 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -6670,8 +6772,10 @@
       <c r="F14">
         <v>0.376153907665982</v>
       </c>
-      <c r="G14">
-        <v>23.03836</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>23.038360000000001 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -6697,8 +6801,10 @@
       <c r="F15">
         <v>0.373254943414931</v>
       </c>
-      <c r="G15">
-        <v>12.0435965</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12.0435965 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -6724,8 +6830,10 @@
       <c r="F16">
         <v>0.373254943414931</v>
       </c>
-      <c r="G16">
-        <v>12.0435965</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12.0435965 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -6751,8 +6859,10 @@
       <c r="F17">
         <v>0.00289896425105099</v>
       </c>
-      <c r="G17">
-        <v>10.9947635</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.994763499999999 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6839,7 +6949,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>58.11999</t>
+          <t>58.11999 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6881,7 +6991,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.101859</t>
+          <t>1.101859 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6923,7 +7033,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>58.70574</t>
+          <t>58.70574 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6965,7 +7075,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.108244</t>
+          <t>1.108244 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7007,7 +7117,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.06219</t>
+          <t>1.06219 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7049,7 +7159,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.08598</t>
+          <t>1.08598 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -7091,7 +7201,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.11001</t>
+          <t>1.11001 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7133,7 +7243,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.016902</t>
+          <t>1.016902 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7175,7 +7285,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.087253</t>
+          <t>1.087253 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7217,7 +7327,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.060973</t>
+          <t>1.060973 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7249,8 +7359,10 @@
       <c r="F13">
         <v>0.409375336886168</v>
       </c>
-      <c r="G13">
-        <v>1.016902</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.016902 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -7276,8 +7388,10 @@
       <c r="F14">
         <v>0.420945363482905</v>
       </c>
-      <c r="G14">
-        <v>58.70574</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>58.705739999999999 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -7303,8 +7417,10 @@
       <c r="F15">
         <v>0.415828276187203</v>
       </c>
-      <c r="G15">
-        <v>12.5459141</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12.545914100000001 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -7330,8 +7446,10 @@
       <c r="F16">
         <v>0.416510422750637</v>
       </c>
-      <c r="G16">
-        <v>1.094556</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0945559999999999 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -7357,8 +7475,10 @@
       <c r="F17">
         <v>0.00355995292113416</v>
       </c>
-      <c r="G17">
-        <v>22.9338645529886</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>22.933864552988602 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -7445,7 +7565,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.558264</t>
+          <t>6.558264 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -7487,7 +7607,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>7.392551</t>
+          <t>7.392551 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -7529,7 +7649,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>7.382303</t>
+          <t>7.382303 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -7571,7 +7691,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7.639088</t>
+          <t>7.639088 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -7613,7 +7733,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.426662</t>
+          <t>7.426662 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -7655,7 +7775,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6.775388</t>
+          <t>6.775388 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -7697,7 +7817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>8.504034</t>
+          <t>8.504034 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -7739,7 +7859,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.879934</t>
+          <t>6.879934 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -7781,7 +7901,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6.870272</t>
+          <t>6.870272 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -7823,7 +7943,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7.611887</t>
+          <t>7.611887 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -7855,8 +7975,10 @@
       <c r="F13">
         <v>0.389930862984026</v>
       </c>
-      <c r="G13">
-        <v>6.558264</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6.5582640000000003 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -7882,8 +8004,10 @@
       <c r="F14">
         <v>0.407941319319203</v>
       </c>
-      <c r="G14">
-        <v>8.504034</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>8.5040340000000008 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -7909,8 +8033,10 @@
       <c r="F15">
         <v>0.396837727802345</v>
       </c>
-      <c r="G15">
-        <v>7.3040383</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7.3040382999999993 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -7936,8 +8062,10 @@
       <c r="F16">
         <v>0.394961840099674</v>
       </c>
-      <c r="G16">
-        <v>7.387427</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>7.3874270000000006 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -7963,8 +8091,10 @@
       <c r="F17">
         <v>0.00618669097462097</v>
       </c>
-      <c r="G17">
-        <v>0.536626811036693</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.53662681103669252 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8051,7 +8181,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>33.34793</t>
+          <t>33.34793 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8093,7 +8223,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>37.29947</t>
+          <t>37.29947 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8135,7 +8265,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>39.21088</t>
+          <t>39.21088 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8177,7 +8307,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>38.97717</t>
+          <t>38.97717 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -8219,7 +8349,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>36.52037</t>
+          <t>36.52037 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -8261,7 +8391,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>36.48992</t>
+          <t>36.48992 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -8303,7 +8433,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>36.81047</t>
+          <t>36.81047 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -8345,7 +8475,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>34.16446</t>
+          <t>34.16446 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -8387,7 +8517,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>38.12796</t>
+          <t>38.12796 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -8429,7 +8559,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>36.22859</t>
+          <t>36.22859 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -8461,8 +8591,10 @@
       <c r="F13">
         <v>0.419890775761175</v>
       </c>
-      <c r="G13">
-        <v>33.34793</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>33.347929999999998 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -8488,8 +8620,10 @@
       <c r="F14">
         <v>0.432726934353615</v>
       </c>
-      <c r="G14">
-        <v>39.21088</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>39.210880000000003 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -8515,8 +8649,10 @@
       <c r="F15">
         <v>0.427587893188377</v>
       </c>
-      <c r="G15">
-        <v>36.717722</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>36.717721999999995 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -8542,8 +8678,10 @@
       <c r="F16">
         <v>0.429058160366716</v>
       </c>
-      <c r="G16">
-        <v>36.66542</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>36.665419999999997 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -8569,8 +8707,10 @@
       <c r="F17">
         <v>0.00404626838077185</v>
       </c>
-      <c r="G17">
-        <v>1.78497851140455</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7849785114045504 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -8657,7 +8797,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>58.09054</t>
+          <t>58.09054 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -8699,7 +8839,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>58.76857</t>
+          <t>58.76857 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8741,7 +8881,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>59.38846</t>
+          <t>59.38846 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -8783,7 +8923,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.057434</t>
+          <t>1.057434 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -8825,7 +8965,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>58.07901</t>
+          <t>58.07901 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -8867,7 +9007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>56.57051</t>
+          <t>56.57051 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -8909,7 +9049,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>58.59806</t>
+          <t>58.59806 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -8951,7 +9091,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>56.97231</t>
+          <t>56.97231 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -8993,7 +9133,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>58.24676</t>
+          <t>58.24676 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -9035,7 +9175,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>58.19596</t>
+          <t>58.19596 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -9067,8 +9207,10 @@
       <c r="F13">
         <v>0.406750447991315</v>
       </c>
-      <c r="G13">
-        <v>1.057434</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.057434 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -9094,8 +9236,10 @@
       <c r="F14">
         <v>0.415822792952856</v>
       </c>
-      <c r="G14">
-        <v>59.38846</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>59.388460000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -9121,8 +9265,10 @@
       <c r="F15">
         <v>0.412527724503157</v>
       </c>
-      <c r="G15">
-        <v>52.3967614</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>52.396761400000003 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -9148,8 +9294,10 @@
       <c r="F16">
         <v>0.413786273135629</v>
       </c>
-      <c r="G16">
-        <v>58.14325</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>58.143249999999995 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -9175,8 +9323,10 @@
       <c r="F17">
         <v>0.00320652646786666</v>
       </c>
-      <c r="G17">
-        <v>17.130623195454</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>17.130623195453971 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -9263,7 +9413,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.39921</t>
+          <t>11.39921 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -9305,7 +9455,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.68267</t>
+          <t>11.68267 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -9347,7 +9497,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11.76215</t>
+          <t>11.76215 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9389,7 +9539,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12.11971</t>
+          <t>12.11971 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9431,7 +9581,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11.81254</t>
+          <t>11.81254 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -9473,7 +9623,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.80915</t>
+          <t>11.80915 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -9515,7 +9665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11.65871</t>
+          <t>11.65871 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -9557,7 +9707,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12.32447</t>
+          <t>12.32447 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -9599,7 +9749,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12.31624</t>
+          <t>12.31624 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -9641,7 +9791,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>7.955551</t>
+          <t>7.955551 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -9673,8 +9823,10 @@
       <c r="F13">
         <v>0.374497108692257</v>
       </c>
-      <c r="G13">
-        <v>7.955551</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7.9555509999999998 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -9700,8 +9852,10 @@
       <c r="F14">
         <v>0.413196217031708</v>
       </c>
-      <c r="G14">
-        <v>12.32447</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>12.32447 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -9727,8 +9881,10 @@
       <c r="F15">
         <v>0.394301643722623</v>
       </c>
-      <c r="G15">
-        <v>11.4840401</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>11.4840401 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -9754,8 +9910,10 @@
       <c r="F16">
         <v>0.395751888618309</v>
       </c>
-      <c r="G16">
-        <v>11.78565</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>11.78565 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -9781,8 +9939,10 @@
       <c r="F17">
         <v>0.0111623949320603</v>
       </c>
-      <c r="G17">
-        <v>1.20918583955573</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2091858395557278 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -9869,7 +10029,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12.60535</t>
+          <t>12.60535 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -9911,7 +10071,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11.78734</t>
+          <t>11.78734 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -9953,7 +10113,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12.1359</t>
+          <t>12.1359 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9995,7 +10155,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12.57089</t>
+          <t>12.57089 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -10037,7 +10197,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13.90985</t>
+          <t>13.90985 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -10079,7 +10239,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11.99115</t>
+          <t>11.99115 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -10121,7 +10281,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12.35071</t>
+          <t>12.35071 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -10163,7 +10323,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12.07902</t>
+          <t>12.07902 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -10205,7 +10365,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13.48457</t>
+          <t>13.48457 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -10247,7 +10407,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13.48696</t>
+          <t>13.48696 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -10279,8 +10439,10 @@
       <c r="F13">
         <v>0.390159020894344</v>
       </c>
-      <c r="G13">
-        <v>11.78734</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>11.78734 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -10306,8 +10468,10 @@
       <c r="F14">
         <v>0.394800012511032</v>
       </c>
-      <c r="G14">
-        <v>13.90985</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>13.90985 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -10333,8 +10497,10 @@
       <c r="F15">
         <v>0.391912360292455</v>
       </c>
-      <c r="G15">
-        <v>12.640174</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>12.640174 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -10360,8 +10526,10 @@
       <c r="F16">
         <v>0.391661449410235</v>
       </c>
-      <c r="G16">
-        <v>12.4608</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>12.460799999999999 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -10387,8 +10555,10 @@
       <c r="F17">
         <v>0.00127521659363033</v>
       </c>
-      <c r="G17">
-        <v>0.696396060689605</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.69639606068960513 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -10475,7 +10645,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.974323</t>
+          <t>1.974323 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -10517,7 +10687,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.99698</t>
+          <t>1.99698 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -10559,7 +10729,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.113224</t>
+          <t>2.113224 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -10601,7 +10771,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.161127</t>
+          <t>2.161127 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -10643,7 +10813,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.728034</t>
+          <t>2.728034 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -10685,7 +10855,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.934737</t>
+          <t>1.934737 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -10727,7 +10897,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.071724</t>
+          <t>2.071724 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -10769,7 +10939,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.049848</t>
+          <t>2.049848 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -10811,7 +10981,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.004533</t>
+          <t>2.004533 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -10853,7 +11023,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.138303</t>
+          <t>2.138303 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -10885,8 +11055,10 @@
       <c r="F13">
         <v>0.35116302813027</v>
       </c>
-      <c r="G13">
-        <v>1.934737</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9347369999999999 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -10912,8 +11084,10 @@
       <c r="F14">
         <v>0.482271531358701</v>
       </c>
-      <c r="G14">
-        <v>2.728034</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.7280340000000001 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -10939,8 +11113,10 @@
       <c r="F15">
         <v>0.39296666476916</v>
       </c>
-      <c r="G15">
-        <v>2.1172833</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.1172833 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -10966,8 +11142,10 @@
       <c r="F16">
         <v>0.396148524385591</v>
       </c>
-      <c r="G16">
-        <v>2.060786</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.0607860000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -10993,8 +11171,10 @@
       <c r="F17">
         <v>0.0355620704158434</v>
       </c>
-      <c r="G17">
-        <v>0.215166557798395</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.21516655779839489 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -11081,7 +11261,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>43.14162</t>
+          <t>43.14162 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -11123,7 +11303,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>43.22466</t>
+          <t>43.22466 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -11165,7 +11345,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>39.47437</t>
+          <t>39.47437 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -11207,7 +11387,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>48.29585</t>
+          <t>48.29585 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -11249,7 +11429,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40.91133</t>
+          <t>40.91133 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -11291,7 +11471,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>37.47027</t>
+          <t>37.47027 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -11333,7 +11513,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>45.45292</t>
+          <t>45.45292 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -11375,7 +11555,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>43.5075</t>
+          <t>43.5075 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -11417,7 +11597,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>39.93909</t>
+          <t>39.93909 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -11459,7 +11639,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>43.58303</t>
+          <t>43.58303 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -11491,8 +11671,10 @@
       <c r="F13">
         <v>0.382165377991744</v>
       </c>
-      <c r="G13">
-        <v>37.47027</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>37.470269999999999 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -11518,8 +11700,10 @@
       <c r="F14">
         <v>0.446872254025817</v>
       </c>
-      <c r="G14">
-        <v>48.29585</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>48.295850000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -11545,8 +11729,10 @@
       <c r="F15">
         <v>0.420147972188482</v>
       </c>
-      <c r="G15">
-        <v>42.500064</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>42.500064000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -11572,8 +11758,10 @@
       <c r="F16">
         <v>0.421180207000049</v>
       </c>
-      <c r="G16">
-        <v>43.18314</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>43.183140000000002 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -11599,8 +11787,10 @@
       <c r="F17">
         <v>0.016392502320414</v>
       </c>
-      <c r="G17">
-        <v>2.98280380591215</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.9828038059121496 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -11687,7 +11877,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>41.04569</t>
+          <t>41.04569 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -11729,7 +11919,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>41.07789</t>
+          <t>41.07789 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -11771,7 +11961,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>41.04856</t>
+          <t>41.04856 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -11813,7 +12003,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>41.55623</t>
+          <t>41.55623 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -11855,7 +12045,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>41.12229</t>
+          <t>41.12229 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -11897,7 +12087,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40.5282</t>
+          <t>40.5282 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -11939,7 +12129,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40.0068</t>
+          <t>40.0068 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -11981,7 +12171,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40.31084</t>
+          <t>40.31084 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -12023,7 +12213,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40.0568</t>
+          <t>40.0568 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -12065,7 +12255,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40.44689</t>
+          <t>40.44689 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -12097,8 +12287,10 @@
       <c r="F13">
         <v>0.397827331811919</v>
       </c>
-      <c r="G13">
-        <v>40.0068</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>40.006799999999998 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -12124,8 +12316,10 @@
       <c r="F14">
         <v>0.408169635024415</v>
       </c>
-      <c r="G14">
-        <v>41.55623</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>41.556229999999999 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -12151,8 +12345,10 @@
       <c r="F15">
         <v>0.403696986429034</v>
       </c>
-      <c r="G15">
-        <v>40.720019</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>40.720019000000001 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -12178,8 +12374,10 @@
       <c r="F16">
         <v>0.404507597586171</v>
       </c>
-      <c r="G16">
-        <v>40.786945</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>40.786945000000003 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -12205,8 +12403,10 @@
       <c r="F17">
         <v>0.00305405309842378</v>
       </c>
-      <c r="G17">
-        <v>0.493001567227732</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.49300156722773164 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -12293,7 +12493,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23.37762</t>
+          <t>23.37762 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12335,7 +12535,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23.5471</t>
+          <t>23.5471 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -12377,7 +12577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23.11763</t>
+          <t>23.11763 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -12419,7 +12619,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22.61806</t>
+          <t>22.61806 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -12461,7 +12661,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23.39061</t>
+          <t>23.39061 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -12503,7 +12703,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23.56282</t>
+          <t>23.56282 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -12545,7 +12745,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24.03042</t>
+          <t>24.03042 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -12587,7 +12787,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22.70644</t>
+          <t>22.70644 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -12629,7 +12829,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22.84675</t>
+          <t>22.84675 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -12671,7 +12871,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24.15492</t>
+          <t>24.15492 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -12703,8 +12903,10 @@
       <c r="F13">
         <v>0.395118453511367</v>
       </c>
-      <c r="G13">
-        <v>22.61806</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>22.61806 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -12730,8 +12932,10 @@
       <c r="F14">
         <v>0.401815449480933</v>
       </c>
-      <c r="G14">
-        <v>24.15492</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>24.154920000000001 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -12757,8 +12961,10 @@
       <c r="F15">
         <v>0.397978537796085</v>
       </c>
-      <c r="G15">
-        <v>23.335237</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>23.335236999999999 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -12784,8 +12990,10 @@
       <c r="F16">
         <v>0.39776460198859</v>
       </c>
-      <c r="G16">
-        <v>23.384115</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>23.384115000000001 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -12811,8 +13019,10 @@
       <c r="F17">
         <v>0.00198327463168499</v>
       </c>
-      <c r="G17">
-        <v>0.495217420595237</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.49521742059523716 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -12899,7 +13109,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>47.87382</t>
+          <t>47.87382 secs</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -12941,7 +13151,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>53.00194</t>
+          <t>53.00194 secs</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -12983,7 +13193,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>54.1362</t>
+          <t>54.1362 secs</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -13025,7 +13235,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>52.4143</t>
+          <t>52.4143 secs</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -13067,7 +13277,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>57.60575</t>
+          <t>57.60575 secs</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -13109,7 +13319,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>57.89241</t>
+          <t>57.89241 secs</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -13151,7 +13361,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>50.44024</t>
+          <t>50.44024 secs</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -13193,7 +13403,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.027301</t>
+          <t>1.027301 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -13235,7 +13445,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>49.84693</t>
+          <t>49.84693 secs</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -13277,7 +13487,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>44.07707</t>
+          <t>44.07707 secs</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -13309,8 +13519,10 @@
       <c r="F13">
         <v>0.37200492773038</v>
       </c>
-      <c r="G13">
-        <v>1.027301</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.027301 secs</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -13336,8 +13548,10 @@
       <c r="F14">
         <v>0.378268770070778</v>
       </c>
-      <c r="G14">
-        <v>57.89241</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>57.892409999999998 secs</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -13363,8 +13577,10 @@
       <c r="F15">
         <v>0.375384873088609</v>
       </c>
-      <c r="G15">
-        <v>46.8315961</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>46.831596099999999 secs</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -13390,8 +13606,10 @@
       <c r="F16">
         <v>0.376001344305913</v>
       </c>
-      <c r="G16">
-        <v>51.42727</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>51.42727 secs</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -13417,8 +13635,10 @@
       <c r="F17">
         <v>0.00226509411197059</v>
       </c>
-      <c r="G17">
-        <v>15.7792351045076</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>15.779235104507597 secs</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -13505,7 +13725,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.574459</t>
+          <t>2.574459 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -13547,7 +13767,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.504838</t>
+          <t>2.504838 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -13589,7 +13809,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.465304</t>
+          <t>2.465304 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -13631,7 +13851,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.449074</t>
+          <t>2.449074 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -13673,7 +13893,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.564218</t>
+          <t>2.564218 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -13715,7 +13935,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2.497551</t>
+          <t>2.497551 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -13757,7 +13977,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.511857</t>
+          <t>2.511857 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -13799,7 +14019,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2.539197</t>
+          <t>2.539197 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -13841,7 +14061,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.475246</t>
+          <t>2.475246 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -13883,7 +14103,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.519953</t>
+          <t>2.519953 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -13915,8 +14135,10 @@
       <c r="F13">
         <v>0.373200881186191</v>
       </c>
-      <c r="G13">
-        <v>2.449074</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.449074 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -13942,8 +14164,10 @@
       <c r="F14">
         <v>0.412055813044304</v>
       </c>
-      <c r="G14">
-        <v>2.574459</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.5744590000000001 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -13969,8 +14193,10 @@
       <c r="F15">
         <v>0.39780710689083</v>
       </c>
-      <c r="G15">
-        <v>2.5101697</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.5101697000000001 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -13996,8 +14222,10 @@
       <c r="F16">
         <v>0.400510354913015</v>
       </c>
-      <c r="G16">
-        <v>2.5083475</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.5083475000000002 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -14023,8 +14251,10 @@
       <c r="F17">
         <v>0.0112228058003515</v>
       </c>
-      <c r="G17">
-        <v>0.0389209660004733</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.038920966000473324 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -14111,7 +14341,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.152074</t>
+          <t>1.152074 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -14153,7 +14383,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.116462</t>
+          <t>1.116462 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -14195,7 +14425,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.129382</t>
+          <t>1.129382 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -14237,7 +14467,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.101269</t>
+          <t>1.101269 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -14279,7 +14509,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.148492</t>
+          <t>1.148492 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -14321,7 +14551,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.127363</t>
+          <t>1.127363 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -14363,7 +14593,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.132941</t>
+          <t>1.132941 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -14405,7 +14635,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.118398</t>
+          <t>1.118398 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -14447,7 +14677,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.107276</t>
+          <t>1.107276 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -14489,7 +14719,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.123626</t>
+          <t>1.123626 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -14521,8 +14751,10 @@
       <c r="F13">
         <v>0.363699729570605</v>
       </c>
-      <c r="G13">
-        <v>1.101269</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1012690000000001 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -14548,8 +14780,10 @@
       <c r="F14">
         <v>0.404932896625156</v>
       </c>
-      <c r="G14">
-        <v>1.152074</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.152074 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -14575,8 +14809,10 @@
       <c r="F15">
         <v>0.393981959644074</v>
       </c>
-      <c r="G15">
-        <v>1.1257283</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1257283 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -14602,8 +14838,10 @@
       <c r="F16">
         <v>0.395546166260375</v>
       </c>
-      <c r="G16">
-        <v>1.1254945</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1254944999999998 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -14629,8 +14867,10 @@
       <c r="F17">
         <v>0.0109709311206917</v>
       </c>
-      <c r="G17">
-        <v>0.015372341285894</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.015372341285893975 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -14717,7 +14957,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13.86551</t>
+          <t>13.86551 mins</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -14759,7 +14999,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14.42825</t>
+          <t>14.42825 mins</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -14801,7 +15041,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>13.73418</t>
+          <t>13.73418 mins</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -14843,7 +15083,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13.88967</t>
+          <t>13.88967 mins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -14885,7 +15125,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13.91525</t>
+          <t>13.91525 mins</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -14927,7 +15167,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14.2977</t>
+          <t>14.2977 mins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -14969,7 +15209,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13.73533</t>
+          <t>13.73533 mins</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -15011,7 +15251,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14.13726</t>
+          <t>14.13726 mins</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -15053,7 +15293,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14.24463</t>
+          <t>14.24463 mins</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -15095,7 +15335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>13.99878</t>
+          <t>13.99878 mins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -15127,8 +15367,10 @@
       <c r="F13">
         <v>0.39737762849016</v>
       </c>
-      <c r="G13">
-        <v>13.73418</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>13.73418 mins</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -15154,8 +15396,10 @@
       <c r="F14">
         <v>0.417436732250287</v>
       </c>
-      <c r="G14">
-        <v>14.42825</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>14.42825 mins</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -15181,8 +15425,10 @@
       <c r="F15">
         <v>0.405739477884799</v>
       </c>
-      <c r="G15">
-        <v>14.024656</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>14.024655999999998 mins</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -15208,8 +15454,10 @@
       <c r="F16">
         <v>0.404129237580546</v>
       </c>
-      <c r="G16">
-        <v>13.957015</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>13.957015 mins</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -15235,8 +15483,10 @@
       <c r="F17">
         <v>0.00722582523772207</v>
       </c>
-      <c r="G17">
-        <v>0.228644508974084</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.22864450897408417 mins</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -15323,7 +15573,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.502824</t>
+          <t>4.502824 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -15365,7 +15615,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.416764</t>
+          <t>4.416764 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -15407,7 +15657,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.437481</t>
+          <t>4.437481 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -15449,7 +15699,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>4.329091</t>
+          <t>4.329091 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -15491,7 +15741,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>4.389731</t>
+          <t>4.389731 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -15533,7 +15783,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4.410457</t>
+          <t>4.410457 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -15575,7 +15825,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4.42487</t>
+          <t>4.42487 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -15617,7 +15867,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>4.468337</t>
+          <t>4.468337 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -15659,7 +15909,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.352918</t>
+          <t>4.352918 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -15701,7 +15951,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.46366</t>
+          <t>4.46366 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -15733,8 +15983,10 @@
       <c r="F13">
         <v>0.292893218813453</v>
       </c>
-      <c r="G13">
-        <v>4.329091</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.329091 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -15760,8 +16012,10 @@
       <c r="F14">
         <v>0.591406342134916</v>
       </c>
-      <c r="G14">
-        <v>4.502824</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.5028240000000004 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -15787,8 +16041,10 @@
       <c r="F15">
         <v>0.350866646108734</v>
       </c>
-      <c r="G15">
-        <v>4.4196133</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.4196133 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -15814,8 +16070,10 @@
       <c r="F16">
         <v>0.308785939983102</v>
       </c>
-      <c r="G16">
-        <v>4.420817</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.4208169999999996 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -15841,8 +16099,10 @@
       <c r="F17">
         <v>0.0900154901969546</v>
       </c>
-      <c r="G17">
-        <v>0.0502120273919507</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.050212027391950687 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -15929,7 +16189,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8.762082</t>
+          <t>8.762082 hours</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -15971,7 +16231,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8.783089</t>
+          <t>8.783089 hours</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -16013,7 +16273,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>8.590231</t>
+          <t>8.590231 hours</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -16055,7 +16315,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8.460394</t>
+          <t>8.460394 hours</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -16097,7 +16357,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>8.55028</t>
+          <t>8.55028 hours</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -16139,7 +16399,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>8.544185</t>
+          <t>8.544185 hours</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -16181,7 +16441,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>9.004738</t>
+          <t>9.004738 hours</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -16223,7 +16483,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>8.217364</t>
+          <t>8.217364 hours</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -16265,7 +16525,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>8.289171</t>
+          <t>8.289171 hours</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -16307,7 +16567,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>8.11417</t>
+          <t>8.11417 hours</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -16339,8 +16599,10 @@
       <c r="F13">
         <v>0.292893218813453</v>
       </c>
-      <c r="G13">
-        <v>8.11417</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8.1141699999999997 hours</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -16366,8 +16628,10 @@
       <c r="F14">
         <v>0.333253234832925</v>
       </c>
-      <c r="G14">
-        <v>9.004738</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>9.0047379999999997 hours</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -16393,8 +16657,10 @@
       <c r="F15">
         <v>0.296952419386392</v>
       </c>
-      <c r="G15">
-        <v>8.5315704</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>8.5315703999999997 hours</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -16420,8 +16686,10 @@
       <c r="F16">
         <v>0.292893218813453</v>
       </c>
-      <c r="G16">
-        <v>8.5472325</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>8.5472324999999998 hours</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -16447,8 +16715,10 @@
       <c r="F17">
         <v>0.0121004694925611</v>
       </c>
-      <c r="G17">
-        <v>0.260961171362025</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.26096117136202468 hours</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/tuning/aggregate-metrics.xlsx
+++ b/output/tuning/aggregate-metrics.xlsx
@@ -705,6 +705,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>52.577640000000009 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1321,6 +1333,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>63.718462000000002 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1937,6 +1961,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>383.36016999999998 secs</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2553,6 +2589,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>29.433788 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3169,6 +3217,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>80.630113999999992 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3785,6 +3845,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>410.10968000000003 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4401,6 +4473,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>90.222825999999998 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5017,6 +5101,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>75.954455999999993 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5633,6 +5729,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>12.18197 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6249,6 +6357,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>16.823135000000001 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6865,6 +6985,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>120.435965 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7481,6 +7613,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>125.459141 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8097,6 +8241,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>73.040382999999991 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8713,6 +8869,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>367.17721999999998 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9329,6 +9497,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>523.96761400000003 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9945,6 +10125,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>114.840401 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10561,6 +10753,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>126.40174 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11177,6 +11381,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>21.172833000000001 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11793,6 +12009,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>425.00064000000003 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12409,6 +12637,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>407.20019000000002 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13025,6 +13265,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>233.35237000000001 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13641,6 +13893,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>468.31596100000002 secs</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14257,6 +14521,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>25.101697000000001 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14873,6 +15149,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>11.257283000000001 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15489,6 +15777,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>140.24655999999999 mins</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16105,6 +16405,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>44.196133000000003 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16721,6 +17033,18 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>85.315703999999997 hours</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/tuning/aggregate-metrics.xlsx
+++ b/output/tuning/aggregate-metrics.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio\Documents\GitHub\best-answer-prediction\output\tuning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/git/bap-script/output/tuning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="7755" firstSheet="14" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="nb" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,20 @@
     <sheet name="C5.0" sheetId="26" r:id="rId25"/>
     <sheet name="xgbTree" sheetId="27" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1410">
   <si>
     <t>AUROC</t>
   </si>
@@ -4250,12 +4258,36 @@
   </si>
   <si>
     <t>0.8366989</t>
+  </si>
+  <si>
+    <t>0.6738916</t>
+  </si>
+  <si>
+    <t>0.6634969</t>
+  </si>
+  <si>
+    <t>0.6317431</t>
+  </si>
+  <si>
+    <t>0.6152986</t>
+  </si>
+  <si>
+    <t>0.66418</t>
+  </si>
+  <si>
+    <t>0.6562967</t>
+  </si>
+  <si>
+    <t>0.6340334</t>
+  </si>
+  <si>
+    <t>0.6281851</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4356,9 +4388,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -4386,31 +4418,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -4438,23 +4453,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4637,9 +4635,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4688,7 +4686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4714,7 +4712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -4740,7 +4738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4766,7 +4764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4792,7 +4790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -4844,7 +4842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -4870,7 +4868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -4896,7 +4894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4922,7 +4920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4945,7 +4943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4968,7 +4966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4991,7 +4989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5014,7 +5012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5037,7 +5035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5058,9 +5056,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5083,7 +5081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5109,7 +5107,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5135,7 +5133,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5161,7 +5159,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -5187,7 +5185,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5213,7 +5211,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5239,7 +5237,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5265,7 +5263,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -5291,7 +5289,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -5317,7 +5315,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5343,7 +5341,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5366,7 +5364,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -5389,7 +5387,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5412,7 +5410,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5435,7 +5433,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5458,7 +5456,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5479,9 +5477,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5504,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5530,7 +5528,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5556,7 +5554,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -5582,7 +5580,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -5608,7 +5606,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5634,7 +5632,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -5660,7 +5658,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5686,7 +5684,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -5712,7 +5710,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -5738,7 +5736,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5764,7 +5762,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5787,7 +5785,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -5810,7 +5808,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5833,7 +5831,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5856,7 +5854,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5879,7 +5877,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5900,9 +5898,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5925,7 +5923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5951,7 +5949,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5977,7 +5975,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6003,7 +6001,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -6029,7 +6027,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6055,7 +6053,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6081,7 +6079,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -6107,7 +6105,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -6133,7 +6131,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -6159,7 +6157,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -6208,7 +6206,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -6231,7 +6229,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -6254,7 +6252,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -6277,7 +6275,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -6300,7 +6298,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -6321,9 +6319,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6346,7 +6344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6372,7 +6370,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6398,7 +6396,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6424,7 +6422,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -6450,7 +6448,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6476,7 +6474,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6502,7 +6500,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -6528,7 +6526,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -6554,7 +6552,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -6580,7 +6578,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6606,7 +6604,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -6629,7 +6627,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -6652,7 +6650,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -6675,7 +6673,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -6698,7 +6696,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -6721,7 +6719,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -6729,52 +6727,52 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>1321</v>
       </c>
@@ -6792,9 +6790,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6817,7 +6815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6843,7 +6841,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6869,7 +6867,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6895,7 +6893,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -6921,7 +6919,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6947,7 +6945,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6973,7 +6971,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -6999,7 +6997,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7025,7 +7023,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -7051,7 +7049,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7077,7 +7075,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -7100,7 +7098,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7123,7 +7121,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7146,7 +7144,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -7169,7 +7167,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -7192,7 +7190,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -7213,9 +7211,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7238,7 +7236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7264,7 +7262,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7290,7 +7288,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -7316,7 +7314,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -7342,7 +7340,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -7368,7 +7366,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7394,7 +7392,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -7420,7 +7418,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7446,7 +7444,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -7472,7 +7470,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7498,7 +7496,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -7521,7 +7519,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7544,7 +7542,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7567,7 +7565,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -7590,7 +7588,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -7613,7 +7611,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -7634,12 +7632,12 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7662,7 +7660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7688,7 +7686,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7714,7 +7712,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -7740,7 +7738,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -7766,7 +7764,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -7792,7 +7790,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7818,7 +7816,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -7844,7 +7842,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7870,7 +7868,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -7896,7 +7894,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7922,7 +7920,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -7945,7 +7943,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7968,7 +7966,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7991,7 +7989,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -8014,7 +8012,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -8037,7 +8035,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8056,9 +8054,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8081,7 +8079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8107,7 +8105,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8133,7 +8131,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8159,7 +8157,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8185,7 +8183,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -8211,7 +8209,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -8237,7 +8235,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -8263,7 +8261,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -8289,7 +8287,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -8315,7 +8313,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8341,7 +8339,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -8364,7 +8362,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -8387,7 +8385,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -8410,7 +8408,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -8433,7 +8431,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -8456,7 +8454,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8473,11 +8471,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8526,12 +8526,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C3" t="s">
         <v>420</v>
@@ -8552,12 +8552,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>843</v>
+        <v>1402</v>
       </c>
       <c r="C4" t="s">
         <v>420</v>
@@ -8578,12 +8578,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>843</v>
+        <v>1403</v>
       </c>
       <c r="C5" t="s">
         <v>420</v>
@@ -8604,12 +8604,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>843</v>
+        <v>1404</v>
       </c>
       <c r="C6" t="s">
         <v>420</v>
@@ -8630,12 +8630,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>846</v>
+        <v>1405</v>
       </c>
       <c r="C7" t="s">
         <v>847</v>
@@ -8656,12 +8656,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>846</v>
+        <v>1406</v>
       </c>
       <c r="C8" t="s">
         <v>847</v>
@@ -8682,12 +8682,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>1407</v>
       </c>
       <c r="C9" t="s">
         <v>847</v>
@@ -8708,12 +8708,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>846</v>
+        <v>1408</v>
       </c>
       <c r="C10" t="s">
         <v>847</v>
@@ -8734,12 +8734,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>846</v>
+        <v>1409</v>
       </c>
       <c r="C11" t="s">
         <v>847</v>
@@ -8760,7 +8760,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8896,9 +8896,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8947,7 +8947,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -9155,7 +9155,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -9317,9 +9317,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -9738,9 +9738,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -9997,7 +9997,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -10023,7 +10023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -10159,9 +10159,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10184,7 +10184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -10210,7 +10210,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -10366,7 +10366,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -10580,9 +10580,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -11001,9 +11001,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -11234,7 +11234,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -11422,9 +11422,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11499,7 +11499,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -11577,7 +11577,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -11681,7 +11681,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11707,7 +11707,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -11843,9 +11843,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -12050,7 +12050,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -12076,7 +12076,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -12260,16 +12260,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -12448,7 +12448,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -12526,7 +12526,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -12688,9 +12688,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -13109,12 +13109,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -13533,9 +13533,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13558,7 +13558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -13662,7 +13662,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -13688,7 +13688,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -13766,7 +13766,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -13792,7 +13792,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -13954,9 +13954,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -14109,7 +14109,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -14187,7 +14187,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -14213,7 +14213,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -14375,9 +14375,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14452,7 +14452,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -14478,7 +14478,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -14582,7 +14582,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -14794,9 +14794,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -15215,9 +15215,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -15370,7 +15370,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -15422,7 +15422,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -15448,7 +15448,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>

--- a/output/tuning/aggregate-metrics.xlsx
+++ b/output/tuning/aggregate-metrics.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fabio/git/bap-script/output/tuning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabio\Documents\GitHub\bap-script\output\tuning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14535" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="nb" sheetId="1" r:id="rId1"/>
@@ -3891,9 +3891,6 @@
     <t>0.8027597</t>
   </si>
   <si>
-    <t>0.8424498</t>
-  </si>
-  <si>
     <t>0.8021162</t>
   </si>
   <si>
@@ -4167,9 +4164,6 @@
     <t>0.8054874</t>
   </si>
   <si>
-    <t>0.8433829</t>
-  </si>
-  <si>
     <t>0.8442629</t>
   </si>
   <si>
@@ -4282,12 +4276,18 @@
   </si>
   <si>
     <t>0.6281851</t>
+  </si>
+  <si>
+    <t>0.8124498</t>
+  </si>
+  <si>
+    <t>0.8133829</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4635,9 +4635,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4660,12 +4660,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4686,7 +4686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4712,12 +4712,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -4738,12 +4738,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -4764,12 +4764,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -4790,12 +4790,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -4816,12 +4816,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -4842,12 +4842,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -4868,12 +4868,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -4894,12 +4894,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -4920,7 +4920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5012,7 +5012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5056,9 +5056,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5133,12 +5133,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C4" t="s">
         <v>457</v>
@@ -5159,12 +5159,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C5" t="s">
         <v>461</v>
@@ -5185,12 +5185,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C6" t="s">
         <v>465</v>
@@ -5211,12 +5211,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C7" t="s">
         <v>469</v>
@@ -5237,7 +5237,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -5263,12 +5263,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C9" t="s">
         <v>477</v>
@@ -5289,7 +5289,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -5315,12 +5315,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C11" t="s">
         <v>485</v>
@@ -5341,7 +5341,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5477,9 +5477,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5502,7 +5502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -5554,12 +5554,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C4" t="s">
         <v>506</v>
@@ -5580,12 +5580,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C5" t="s">
         <v>510</v>
@@ -5606,12 +5606,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C6" t="s">
         <v>514</v>
@@ -5632,12 +5632,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="C7" t="s">
         <v>518</v>
@@ -5658,12 +5658,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="C8" t="s">
         <v>522</v>
@@ -5684,12 +5684,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C9" t="s">
         <v>526</v>
@@ -5710,12 +5710,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C10" t="s">
         <v>530</v>
@@ -5736,7 +5736,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -5898,9 +5898,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5949,12 +5949,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C3" t="s">
         <v>502</v>
@@ -5975,12 +5975,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C4" t="s">
         <v>549</v>
@@ -6001,12 +6001,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C5" t="s">
         <v>510</v>
@@ -6027,12 +6027,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C6" t="s">
         <v>554</v>
@@ -6053,12 +6053,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="C7" t="s">
         <v>518</v>
@@ -6079,12 +6079,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C8" t="s">
         <v>522</v>
@@ -6105,12 +6105,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C9" t="s">
         <v>562</v>
@@ -6131,12 +6131,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C10" t="s">
         <v>566</v>
@@ -6157,12 +6157,12 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C11" t="s">
         <v>535</v>
@@ -6183,7 +6183,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6275,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -6298,7 +6298,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -6319,9 +6319,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6344,12 +6344,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C2" t="s">
         <v>576</v>
@@ -6370,12 +6370,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="C3" t="s">
         <v>581</v>
@@ -6396,12 +6396,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C4" t="s">
         <v>585</v>
@@ -6422,12 +6422,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C5" t="s">
         <v>589</v>
@@ -6448,12 +6448,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C6" t="s">
         <v>593</v>
@@ -6474,7 +6474,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -6526,12 +6526,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="C9" t="s">
         <v>606</v>
@@ -6552,12 +6552,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C10" t="s">
         <v>610</v>
@@ -6578,12 +6578,12 @@
         <v>580</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C11" t="s">
         <v>614</v>
@@ -6604,7 +6604,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -6727,54 +6727,54 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
   </sheetData>
@@ -6790,9 +6790,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6815,12 +6815,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C2" t="s">
         <v>624</v>
@@ -6841,7 +6841,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -6893,12 +6893,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C5" t="s">
         <v>639</v>
@@ -6919,7 +6919,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -6971,12 +6971,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C8" t="s">
         <v>653</v>
@@ -6997,7 +6997,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -7211,9 +7211,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7288,12 +7288,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="C4" t="s">
         <v>688</v>
@@ -7314,12 +7314,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="C5" t="s">
         <v>692</v>
@@ -7340,7 +7340,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -7470,12 +7470,12 @@
         <v>682</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C11" t="s">
         <v>721</v>
@@ -7496,7 +7496,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -7632,12 +7632,12 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7660,12 +7660,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C2" t="s">
         <v>730</v>
@@ -7686,12 +7686,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C3" t="s">
         <v>735</v>
@@ -7712,12 +7712,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C4" t="s">
         <v>739</v>
@@ -7738,12 +7738,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C5" t="s">
         <v>743</v>
@@ -7764,12 +7764,12 @@
         <v>747</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C6" t="s">
         <v>748</v>
@@ -7790,12 +7790,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C7" t="s">
         <v>752</v>
@@ -7816,7 +7816,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -7842,12 +7842,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C9" t="s">
         <v>760</v>
@@ -7868,7 +7868,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -7894,12 +7894,12 @@
         <v>734</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C11" t="s">
         <v>768</v>
@@ -7920,7 +7920,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8054,9 +8054,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8471,13 +8471,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -8552,12 +8552,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C4" t="s">
         <v>420</v>
@@ -8578,12 +8578,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C5" t="s">
         <v>420</v>
@@ -8604,12 +8604,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C6" t="s">
         <v>420</v>
@@ -8630,12 +8630,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C7" t="s">
         <v>847</v>
@@ -8656,12 +8656,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C8" t="s">
         <v>847</v>
@@ -8682,12 +8682,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C9" t="s">
         <v>847</v>
@@ -8708,12 +8708,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C10" t="s">
         <v>847</v>
@@ -8734,12 +8734,12 @@
         <v>845</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C11" t="s">
         <v>847</v>
@@ -8760,7 +8760,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -8875,7 +8875,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -8896,9 +8896,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8921,12 +8921,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="C2" t="s">
         <v>854</v>
@@ -8947,12 +8947,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C3" t="s">
         <v>859</v>
@@ -8973,7 +8973,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -9025,12 +9025,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="C6" t="s">
         <v>874</v>
@@ -9051,12 +9051,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="C7" t="s">
         <v>878</v>
@@ -9077,12 +9077,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C8" t="s">
         <v>882</v>
@@ -9103,12 +9103,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C9" t="s">
         <v>886</v>
@@ -9129,12 +9129,12 @@
         <v>863</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C10" t="s">
         <v>890</v>
@@ -9155,12 +9155,12 @@
         <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="C11" t="s">
         <v>894</v>
@@ -9181,7 +9181,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -9204,7 +9204,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -9317,9 +9317,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9368,12 +9368,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
@@ -9394,12 +9394,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
@@ -9420,12 +9420,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -9446,12 +9446,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -9472,12 +9472,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -9498,12 +9498,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -9524,12 +9524,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -9550,12 +9550,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
@@ -9576,12 +9576,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -9602,7 +9602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -9738,9 +9738,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9789,12 +9789,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C3" t="s">
         <v>909</v>
@@ -9815,12 +9815,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C4" t="s">
         <v>913</v>
@@ -9841,12 +9841,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="C5" t="s">
         <v>917</v>
@@ -9867,12 +9867,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C6" t="s">
         <v>921</v>
@@ -9893,12 +9893,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="C7" t="s">
         <v>925</v>
@@ -9919,12 +9919,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="C8" t="s">
         <v>929</v>
@@ -9945,12 +9945,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C9" t="s">
         <v>933</v>
@@ -9971,12 +9971,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C10" t="s">
         <v>937</v>
@@ -9997,12 +9997,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C11" t="s">
         <v>941</v>
@@ -10023,7 +10023,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -10069,7 +10069,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -10159,9 +10159,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10184,12 +10184,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C2" t="s">
         <v>951</v>
@@ -10210,7 +10210,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10236,12 +10236,12 @@
         <v>961</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C4" t="s">
         <v>962</v>
@@ -10262,12 +10262,12 @@
         <v>961</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C5" t="s">
         <v>966</v>
@@ -10288,12 +10288,12 @@
         <v>961</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C6" t="s">
         <v>970</v>
@@ -10314,7 +10314,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -10340,12 +10340,12 @@
         <v>961</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C8" t="s">
         <v>979</v>
@@ -10366,12 +10366,12 @@
         <v>961</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C9" t="s">
         <v>983</v>
@@ -10392,12 +10392,12 @@
         <v>987</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C10" t="s">
         <v>988</v>
@@ -10418,12 +10418,12 @@
         <v>987</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C11" t="s">
         <v>992</v>
@@ -10444,7 +10444,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -10490,7 +10490,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -10536,7 +10536,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -10580,9 +10580,9 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -10709,7 +10709,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -10865,7 +10865,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -10997,13 +10997,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11026,12 +11026,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1279</v>
+        <v>1408</v>
       </c>
       <c r="C2" t="s">
         <v>1055</v>
@@ -11052,7 +11052,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11078,12 +11078,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C4" t="s">
         <v>1065</v>
@@ -11104,12 +11104,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C5" t="s">
         <v>1069</v>
@@ -11130,12 +11130,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C6" t="s">
         <v>1073</v>
@@ -11156,7 +11156,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -11182,12 +11182,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1371</v>
+        <v>1409</v>
       </c>
       <c r="C8" t="s">
         <v>1082</v>
@@ -11208,7 +11208,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -11234,12 +11234,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C10" t="s">
         <v>1088</v>
@@ -11260,12 +11260,12 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C11" t="s">
         <v>1092</v>
@@ -11286,7 +11286,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -11309,7 +11309,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -11332,7 +11332,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -11422,9 +11422,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11447,12 +11447,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C2" t="s">
         <v>1100</v>
@@ -11473,7 +11473,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11499,12 +11499,12 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="C4" t="s">
         <v>1110</v>
@@ -11525,7 +11525,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -11551,7 +11551,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -11577,12 +11577,12 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="C7" t="s">
         <v>1125</v>
@@ -11603,7 +11603,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -11629,7 +11629,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -11655,12 +11655,12 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C10" t="s">
         <v>1140</v>
@@ -11681,12 +11681,12 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C11" t="s">
         <v>1144</v>
@@ -11707,7 +11707,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -11730,7 +11730,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -11843,9 +11843,9 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -11972,12 +11972,12 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C6" t="s">
         <v>1177</v>
@@ -11998,7 +11998,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -12024,12 +12024,12 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C8" t="s">
         <v>1186</v>
@@ -12050,12 +12050,12 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C9" t="s">
         <v>1190</v>
@@ -12076,12 +12076,12 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C10" t="s">
         <v>1194</v>
@@ -12102,12 +12102,12 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C11" t="s">
         <v>1198</v>
@@ -12128,7 +12128,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -12151,7 +12151,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -12174,7 +12174,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -12197,7 +12197,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -12243,7 +12243,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -12264,12 +12264,12 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12292,12 +12292,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="C2" t="s">
         <v>1208</v>
@@ -12318,12 +12318,12 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C3" t="s">
         <v>1213</v>
@@ -12344,12 +12344,12 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C4" t="s">
         <v>1217</v>
@@ -12370,12 +12370,12 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C5" t="s">
         <v>1222</v>
@@ -12396,12 +12396,12 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C6" t="s">
         <v>1226</v>
@@ -12422,12 +12422,12 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C7" t="s">
         <v>1230</v>
@@ -12448,12 +12448,12 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C8" t="s">
         <v>1234</v>
@@ -12474,7 +12474,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -12500,12 +12500,12 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C10" t="s">
         <v>1244</v>
@@ -12526,12 +12526,12 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C11" t="s">
         <v>1248</v>
@@ -12552,7 +12552,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -12621,7 +12621,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -12644,7 +12644,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -12688,9 +12688,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -12739,7 +12739,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -12895,12 +12895,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C9" t="s">
         <v>153</v>
@@ -12921,7 +12921,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12973,7 +12973,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -13065,7 +13065,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -13109,12 +13109,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13137,7 +13137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -13466,7 +13466,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -13489,7 +13489,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -13533,9 +13533,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13558,12 +13558,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C2" t="s">
         <v>218</v>
@@ -13584,12 +13584,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C3" t="s">
         <v>223</v>
@@ -13610,12 +13610,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C4" t="s">
         <v>228</v>
@@ -13636,12 +13636,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C5" t="s">
         <v>233</v>
@@ -13662,12 +13662,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C6" t="s">
         <v>238</v>
@@ -13688,7 +13688,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -13740,12 +13740,12 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C9" t="s">
         <v>250</v>
@@ -13766,7 +13766,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -13792,12 +13792,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C11" t="s">
         <v>258</v>
@@ -13818,7 +13818,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -13841,7 +13841,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -13864,7 +13864,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -13910,7 +13910,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -13933,7 +13933,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -13954,9 +13954,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14005,12 +14005,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C3" t="s">
         <v>274</v>
@@ -14031,12 +14031,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C4" t="s">
         <v>278</v>
@@ -14057,12 +14057,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C5" t="s">
         <v>283</v>
@@ -14083,12 +14083,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C6" t="s">
         <v>287</v>
@@ -14109,7 +14109,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -14135,7 +14135,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -14187,12 +14187,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C10" t="s">
         <v>307</v>
@@ -14213,12 +14213,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C11" t="s">
         <v>311</v>
@@ -14239,7 +14239,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -14262,7 +14262,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -14285,7 +14285,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -14331,7 +14331,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -14375,9 +14375,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14400,12 +14400,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C2" t="s">
         <v>320</v>
@@ -14426,12 +14426,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C3" t="s">
         <v>325</v>
@@ -14452,12 +14452,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C4" t="s">
         <v>329</v>
@@ -14478,7 +14478,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -14504,12 +14504,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C6" t="s">
         <v>338</v>
@@ -14530,7 +14530,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -14556,12 +14556,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C8" t="s">
         <v>347</v>
@@ -14582,12 +14582,12 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C9" t="s">
         <v>352</v>
@@ -14608,12 +14608,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C10" t="s">
         <v>357</v>
@@ -14634,7 +14634,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -14683,7 +14683,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -14706,7 +14706,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -14729,7 +14729,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -14794,9 +14794,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -14845,7 +14845,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -14897,7 +14897,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -14949,7 +14949,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -15001,7 +15001,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -15053,7 +15053,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -15215,9 +15215,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15240,12 +15240,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C2" t="s">
         <v>420</v>
@@ -15266,7 +15266,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -15292,7 +15292,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -15318,12 +15318,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C5" t="s">
         <v>420</v>
@@ -15344,12 +15344,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C6" t="s">
         <v>420</v>
@@ -15370,12 +15370,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C7" t="s">
         <v>420</v>
@@ -15396,7 +15396,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -15422,12 +15422,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C9" t="s">
         <v>420</v>
@@ -15448,12 +15448,12 @@
         <v>422</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C10" t="s">
         <v>420</v>
@@ -15474,12 +15474,12 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C11" t="s">
         <v>420</v>
@@ -15500,7 +15500,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -15523,7 +15523,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -15615,7 +15615,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>70</v>
       </c>

--- a/output/tuning/aggregate-metrics.xlsx
+++ b/output/tuning/aggregate-metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="nb" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <sheet name="C5.0" sheetId="26" r:id="rId25"/>
     <sheet name="xgbTree" sheetId="27" r:id="rId26"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="1370">
   <si>
     <t>AUROC</t>
   </si>
@@ -426,9 +426,6 @@
     <t>nprune = 15 and degree = 1</t>
   </si>
   <si>
-    <t>0.8244225</t>
-  </si>
-  <si>
     <t>0.935576485046244</t>
   </si>
   <si>
@@ -441,9 +438,6 @@
     <t>23.5471 mins</t>
   </si>
   <si>
-    <t>0.8251929</t>
-  </si>
-  <si>
     <t>0.935462014059456</t>
   </si>
   <si>
@@ -456,9 +450,6 @@
     <t>23.11763 mins</t>
   </si>
   <si>
-    <t>0.8237503</t>
-  </si>
-  <si>
     <t>0.935138398957638</t>
   </si>
   <si>
@@ -471,9 +462,6 @@
     <t>22.61806 mins</t>
   </si>
   <si>
-    <t>0.8246805</t>
-  </si>
-  <si>
     <t>0.934972781766961</t>
   </si>
   <si>
@@ -498,9 +486,6 @@
     <t>23.56282 mins</t>
   </si>
   <si>
-    <t>0.8262105</t>
-  </si>
-  <si>
     <t>0.935255453592862</t>
   </si>
   <si>
@@ -1053,9 +1038,6 @@
     <t>13.73418 mins</t>
   </si>
   <si>
-    <t>0.8240725</t>
-  </si>
-  <si>
     <t>0.935132385050771</t>
   </si>
   <si>
@@ -1080,9 +1062,6 @@
     <t>13.91525 mins</t>
   </si>
   <si>
-    <t>0.823592</t>
-  </si>
-  <si>
     <t>0.93508008910576</t>
   </si>
   <si>
@@ -1137,9 +1116,6 @@
     <t>14.24463 mins</t>
   </si>
   <si>
-    <t>0.8251597</t>
-  </si>
-  <si>
     <t>0.934800637958533</t>
   </si>
   <si>
@@ -2922,9 +2898,6 @@
     <t>n.trees = 200, interaction.depth = 5, shrinkage = 0.1 and n.minobsinnode = 10</t>
   </si>
   <si>
-    <t>0.827435</t>
-  </si>
-  <si>
     <t>0.935501688937987</t>
   </si>
   <si>
@@ -2976,9 +2949,6 @@
     <t>58.07901 mins</t>
   </si>
   <si>
-    <t>0.8280495</t>
-  </si>
-  <si>
     <t>0.934973339281542</t>
   </si>
   <si>
@@ -3234,9 +3204,6 @@
     <t>mstop = 250 and prune = no</t>
   </si>
   <si>
-    <t>0.8235436</t>
-  </si>
-  <si>
     <t>0.935061088485746</t>
   </si>
   <si>
@@ -3771,9 +3738,6 @@
     <t>nrounds = 200, max_depth = 3, eta = 0.1, gamma = 0, colsample_bytree = 1 and min_child_weight = 1</t>
   </si>
   <si>
-    <t>0.8283031</t>
-  </si>
-  <si>
     <t>0.935256070406107</t>
   </si>
   <si>
@@ -3861,18 +3825,6 @@
     <t>0.7943647</t>
   </si>
   <si>
-    <t>0.80524</t>
-  </si>
-  <si>
-    <t>0.8466634</t>
-  </si>
-  <si>
-    <t>0.8155498</t>
-  </si>
-  <si>
-    <t>0.8354486</t>
-  </si>
-  <si>
     <t>0.8032176</t>
   </si>
   <si>
@@ -3891,9 +3843,6 @@
     <t>0.8027597</t>
   </si>
   <si>
-    <t>0.8424498</t>
-  </si>
-  <si>
     <t>0.8021162</t>
   </si>
   <si>
@@ -3909,24 +3858,6 @@
     <t>0.8324258</t>
   </si>
   <si>
-    <t>0.8139823</t>
-  </si>
-  <si>
-    <t>0.8359585</t>
-  </si>
-  <si>
-    <t>0.8345375</t>
-  </si>
-  <si>
-    <t>0.8161551</t>
-  </si>
-  <si>
-    <t>0.8136648</t>
-  </si>
-  <si>
-    <t>0.8350002</t>
-  </si>
-  <si>
     <t>0.8144932</t>
   </si>
   <si>
@@ -3945,27 +3876,6 @@
     <t>0.8137323</t>
   </si>
   <si>
-    <t>0.8377788</t>
-  </si>
-  <si>
-    <t>0.8375038</t>
-  </si>
-  <si>
-    <t>0.8460608</t>
-  </si>
-  <si>
-    <t>0.8077976</t>
-  </si>
-  <si>
-    <t>0.8080393</t>
-  </si>
-  <si>
-    <t>0.8162984</t>
-  </si>
-  <si>
-    <t>0.8357749</t>
-  </si>
-  <si>
     <t>0.8339339</t>
   </si>
   <si>
@@ -4167,18 +4077,6 @@
     <t>0.8054874</t>
   </si>
   <si>
-    <t>0.8433829</t>
-  </si>
-  <si>
-    <t>0.8442629</t>
-  </si>
-  <si>
-    <t>0.8532353</t>
-  </si>
-  <si>
-    <t>0.8669708</t>
-  </si>
-  <si>
     <t>0.8383601</t>
   </si>
   <si>
@@ -4233,33 +4131,6 @@
     <t>0.8257335</t>
   </si>
   <si>
-    <t>0.8473973</t>
-  </si>
-  <si>
-    <t>0.8386009</t>
-  </si>
-  <si>
-    <t>0.8573685</t>
-  </si>
-  <si>
-    <t>0.8665913</t>
-  </si>
-  <si>
-    <t>0.8366938</t>
-  </si>
-  <si>
-    <t>0.8470333</t>
-  </si>
-  <si>
-    <t>0.8879056</t>
-  </si>
-  <si>
-    <t>0.8468781</t>
-  </si>
-  <si>
-    <t>0.8366989</t>
-  </si>
-  <si>
     <t>0.6738916</t>
   </si>
   <si>
@@ -4282,6 +4153,15 @@
   </si>
   <si>
     <t>0.6281851</t>
+  </si>
+  <si>
+    <t>0.8824498</t>
+  </si>
+  <si>
+    <t>0.8635436</t>
+  </si>
+  <si>
+    <t>0.8533829</t>
   </si>
 </sst>
 </file>
@@ -4665,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1362</v>
+        <v>1332</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -4717,7 +4597,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1363</v>
+        <v>1333</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -4743,7 +4623,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1364</v>
+        <v>1334</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -4769,7 +4649,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1370</v>
+        <v>1340</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -4795,7 +4675,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1365</v>
+        <v>1335</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -4821,7 +4701,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1366</v>
+        <v>1336</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
@@ -4847,7 +4727,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1367</v>
+        <v>1337</v>
       </c>
       <c r="C9" t="s">
         <v>46</v>
@@ -4873,7 +4753,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1368</v>
+        <v>1338</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -4899,7 +4779,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="C11" t="s">
         <v>56</v>
@@ -5086,25 +4966,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1268</v>
+        <v>1256</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5112,25 +4992,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D3" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G3" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5138,25 +5018,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1306</v>
+        <v>1276</v>
       </c>
       <c r="C4" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H4" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5164,25 +5044,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="G5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="H5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5190,25 +5070,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1305</v>
+        <v>1275</v>
       </c>
       <c r="C6" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D6" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G6" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H6" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5216,25 +5096,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1307</v>
+        <v>1277</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5242,25 +5122,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H8" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5268,25 +5148,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1308</v>
+        <v>1278</v>
       </c>
       <c r="C9" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H9" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5294,25 +5174,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="D10" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G10" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5320,25 +5200,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1310</v>
+        <v>1280</v>
       </c>
       <c r="C11" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D11" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G11" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H11" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5361,7 +5241,7 @@
         <v>0.372533652382876</v>
       </c>
       <c r="G13" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5384,7 +5264,7 @@
         <v>0.38118693135694998</v>
       </c>
       <c r="G14" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5407,7 +5287,7 @@
         <v>0.37576138745235099</v>
       </c>
       <c r="G15" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5430,7 +5310,7 @@
         <v>0.37502956775195301</v>
       </c>
       <c r="G16" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5453,7 +5333,7 @@
         <v>2.3846354675327798E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5461,7 +5341,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5507,25 +5387,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="H2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5533,25 +5413,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G3" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H3" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5559,25 +5439,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1384</v>
+        <v>1350</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="D4" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G4" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="H4" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -5585,25 +5465,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1392</v>
+        <v>1358</v>
       </c>
       <c r="C5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -5611,25 +5491,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1380</v>
+        <v>1346</v>
       </c>
       <c r="C6" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G6" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="H6" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -5637,25 +5517,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1381</v>
+        <v>1347</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -5663,25 +5543,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1383</v>
+        <v>1349</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G8" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="H8" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -5689,25 +5569,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1382</v>
+        <v>1348</v>
       </c>
       <c r="C9" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G9" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H9" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -5715,25 +5595,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1378</v>
+        <v>1344</v>
       </c>
       <c r="C10" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D10" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G10" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H10" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -5741,25 +5621,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C11" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D11" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G11" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="H11" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -5782,7 +5662,7 @@
         <v>0.34164263036668702</v>
       </c>
       <c r="G13" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -5805,7 +5685,7 @@
         <v>0.34542858591161901</v>
       </c>
       <c r="G14" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -5828,7 +5708,7 @@
         <v>0.34344819719686798</v>
       </c>
       <c r="G15" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -5851,7 +5731,7 @@
         <v>0.343640527451959</v>
       </c>
       <c r="G16" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5874,7 +5754,7 @@
         <v>1.07776159619647E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5882,7 +5762,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -5928,25 +5808,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C2" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H2" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5954,25 +5834,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1329</v>
+        <v>1299</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G3" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="H3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5980,25 +5860,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1328</v>
+        <v>1298</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G4" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="H4" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6006,25 +5886,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1326</v>
+        <v>1296</v>
       </c>
       <c r="C5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D5" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G5" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6032,25 +5912,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1327</v>
+        <v>1297</v>
       </c>
       <c r="C6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D6" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="H6" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6058,25 +5938,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1325</v>
+        <v>1295</v>
       </c>
       <c r="C7" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D7" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="H7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6084,25 +5964,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
       <c r="C8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G8" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6110,25 +5990,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
       <c r="C9" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D9" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G9" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="H9" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6136,25 +6016,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1322</v>
+        <v>1292</v>
       </c>
       <c r="C10" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D10" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G10" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H10" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6162,25 +6042,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="C11" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D11" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G11" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="H11" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6203,7 +6083,7 @@
         <v>0.34164272898394699</v>
       </c>
       <c r="G13" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -6226,7 +6106,7 @@
         <v>0.34542858591161901</v>
       </c>
       <c r="G14" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6249,7 +6129,7 @@
         <v>0.34343739572341098</v>
       </c>
       <c r="G15" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -6272,7 +6152,7 @@
         <v>0.343640527451959</v>
       </c>
       <c r="G16" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6295,7 +6175,7 @@
         <v>1.0691655191602701E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6303,7 +6183,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -6349,25 +6229,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1330</v>
+        <v>1300</v>
       </c>
       <c r="C2" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G2" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6375,25 +6255,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1329</v>
+        <v>1299</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="H3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6401,25 +6281,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1332</v>
+        <v>1302</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G4" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="H4" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6427,25 +6307,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1326</v>
+        <v>1296</v>
       </c>
       <c r="C5" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="G5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H5" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6453,25 +6333,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1327</v>
+        <v>1297</v>
       </c>
       <c r="C6" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="D6" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="G6" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H6" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6479,25 +6359,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6505,25 +6385,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C8" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G8" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H8" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6531,25 +6411,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1331</v>
+        <v>1301</v>
       </c>
       <c r="C9" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="D9" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G9" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H9" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6557,25 +6437,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1322</v>
+        <v>1292</v>
       </c>
       <c r="C10" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="D10" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G10" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H10" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6583,25 +6463,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
       <c r="C11" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G11" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H11" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -6624,7 +6504,7 @@
         <v>0.439471190511104</v>
       </c>
       <c r="G13" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -6647,7 +6527,7 @@
         <v>0.453764629163879</v>
       </c>
       <c r="G14" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -6670,7 +6550,7 @@
         <v>0.44418274911136901</v>
       </c>
       <c r="G15" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -6693,7 +6573,7 @@
         <v>0.44371596322442802</v>
       </c>
       <c r="G16" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6716,7 +6596,7 @@
         <v>4.05735971504747E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -6724,57 +6604,57 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>1329</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1328</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1326</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1327</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1325</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>1324</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>1323</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>1322</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>1321</v>
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
@@ -6820,25 +6700,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1347</v>
+        <v>1317</v>
       </c>
       <c r="C2" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="D2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G2" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H2" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6846,25 +6726,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="D3" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G3" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6872,25 +6752,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C4" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D4" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="G4" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="H4" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6898,25 +6778,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1348</v>
+        <v>1318</v>
       </c>
       <c r="C5" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="D5" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="G5" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H5" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6924,25 +6804,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="C6" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G6" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="H6" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6950,25 +6830,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="D7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="G7" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="H7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6976,25 +6856,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1349</v>
+        <v>1319</v>
       </c>
       <c r="C8" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D8" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="G8" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="H8" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -7002,25 +6882,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="C9" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G9" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="H9" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7028,25 +6908,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C10" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="D10" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G10" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="H10" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7054,25 +6934,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C11" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="D11" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G11" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="H11" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -7095,7 +6975,7 @@
         <v>0.38335326847904</v>
       </c>
       <c r="G13" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -7118,7 +6998,7 @@
         <v>0.42550908039181701</v>
       </c>
       <c r="G14" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -7141,7 +7021,7 @@
         <v>0.40068611919107999</v>
       </c>
       <c r="G15" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -7164,7 +7044,7 @@
         <v>0.397637295621459</v>
       </c>
       <c r="G16" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -7187,7 +7067,7 @@
         <v>1.3698623864727E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -7195,7 +7075,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -7241,25 +7121,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="C2" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D2" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G2" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="H2" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -7267,25 +7147,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="C3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="D3" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="H3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -7293,25 +7173,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1352</v>
+        <v>1322</v>
       </c>
       <c r="C4" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D4" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G4" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="H4" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -7319,25 +7199,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1351</v>
+        <v>1321</v>
       </c>
       <c r="C5" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="D5" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G5" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="H5" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -7345,25 +7225,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="C6" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="D6" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="G6" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="H6" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -7371,25 +7251,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="C7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="D7" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G7" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="H7" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -7397,25 +7277,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C8" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="D8" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="G8" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="H8" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -7423,25 +7303,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C9" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="D9" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G9" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="H9" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7449,25 +7329,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="D10" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="G10" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="H10" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7475,25 +7355,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1350</v>
+        <v>1320</v>
       </c>
       <c r="C11" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="D11" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="G11" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="H11" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -7516,7 +7396,7 @@
         <v>0.44007905623666099</v>
       </c>
       <c r="G13" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -7539,7 +7419,7 @@
         <v>0.46533994904884202</v>
       </c>
       <c r="G14" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -7562,7 +7442,7 @@
         <v>0.44820512410448099</v>
       </c>
       <c r="G15" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -7585,7 +7465,7 @@
         <v>0.44636219841407698</v>
       </c>
       <c r="G16" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -7608,7 +7488,7 @@
         <v>7.9675763494367596E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -7616,7 +7496,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -7665,25 +7545,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1304</v>
+        <v>1274</v>
       </c>
       <c r="C2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="D2" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="H2" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -7691,25 +7571,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1291</v>
+        <v>1268</v>
       </c>
       <c r="C3" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D3" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="G3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="H3" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -7717,25 +7597,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1306</v>
+        <v>1276</v>
       </c>
       <c r="C4" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="D4" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="G4" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="H4" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -7743,25 +7623,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="D5" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G5" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="H5" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -7769,25 +7649,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1305</v>
+        <v>1275</v>
       </c>
       <c r="C6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="D6" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G6" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="H6" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -7795,25 +7675,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1307</v>
+        <v>1277</v>
       </c>
       <c r="C7" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D7" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G7" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="H7" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -7821,25 +7701,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="D8" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G8" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="H8" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -7847,25 +7727,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1308</v>
+        <v>1278</v>
       </c>
       <c r="C9" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="D9" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G9" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="H9" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -7873,25 +7753,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="D10" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G10" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="H10" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -7899,25 +7779,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1309</v>
+        <v>1279</v>
       </c>
       <c r="C11" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="D11" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G11" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="H11" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -7940,7 +7820,7 @@
         <v>0.39035106045983697</v>
       </c>
       <c r="G13" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -7963,7 +7843,7 @@
         <v>0.40102927471345201</v>
       </c>
       <c r="G14" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -7986,7 +7866,7 @@
         <v>0.39617435728970402</v>
       </c>
       <c r="G15" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -8009,7 +7889,7 @@
         <v>0.39715138310907899</v>
       </c>
       <c r="G16" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -8032,7 +7912,7 @@
         <v>3.3714324369188099E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -8040,7 +7920,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -8084,25 +7964,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C2" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="D2" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="G2" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="H2" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8110,25 +7990,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C3" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D3" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G3" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="H3" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8136,25 +8016,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="C4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="D4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="G4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="H4" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -8162,25 +8042,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C5" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="D5" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G5" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="H5" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -8188,25 +8068,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C6" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D6" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="G6" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="H6" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -8214,25 +8094,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C7" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="D7" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G7" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="H7" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -8240,25 +8120,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C8" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="D8" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="G8" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="H8" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -8266,25 +8146,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="C9" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="D9" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G9" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="H9" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -8292,25 +8172,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C10" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D10" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="G10" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="H10" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -8318,25 +8198,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="C11" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="D11" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="G11" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="H11" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -8359,7 +8239,7 @@
         <v>0.364452419406325</v>
       </c>
       <c r="G13" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -8382,7 +8262,7 @@
         <v>0.39974408169656001</v>
       </c>
       <c r="G14" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -8405,7 +8285,7 @@
         <v>0.38519599393514697</v>
       </c>
       <c r="G15" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -8428,7 +8308,7 @@
         <v>0.387602706922276</v>
       </c>
       <c r="G16" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -8451,7 +8331,7 @@
         <v>1.0866080982862901E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -8459,7 +8339,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -8471,7 +8351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
@@ -8505,25 +8385,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="H2" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8531,25 +8411,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G3" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="H3" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8557,25 +8437,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1402</v>
+        <v>1359</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G4" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="H4" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -8583,25 +8463,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1403</v>
+        <v>1360</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G5" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="H5" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -8609,25 +8489,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1404</v>
+        <v>1361</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="H6" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -8635,25 +8515,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1405</v>
+        <v>1362</v>
       </c>
       <c r="C7" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D7" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G7" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="H7" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -8661,25 +8541,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1406</v>
+        <v>1363</v>
       </c>
       <c r="C8" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D8" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G8" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="H8" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -8687,25 +8567,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1407</v>
+        <v>1364</v>
       </c>
       <c r="C9" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D9" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G9" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="H9" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -8713,25 +8593,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1408</v>
+        <v>1365</v>
       </c>
       <c r="C10" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D10" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G10" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="H10" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -8739,25 +8619,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1409</v>
+        <v>1366</v>
       </c>
       <c r="C11" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D11" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="G11" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="H11" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -8780,7 +8660,7 @@
         <v>0.29289321881345298</v>
       </c>
       <c r="G13" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -8803,7 +8683,7 @@
         <v>0.29335719893692003</v>
       </c>
       <c r="G14" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -8826,7 +8706,7 @@
         <v>0.293125208875187</v>
       </c>
       <c r="G15" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -8849,7 +8729,7 @@
         <v>0.293125208875187</v>
       </c>
       <c r="G16" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -8872,7 +8752,7 @@
         <v>2.31990061733522E-4</v>
       </c>
       <c r="G17" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -8880,7 +8760,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -8926,25 +8806,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1320</v>
+        <v>1290</v>
       </c>
       <c r="C2" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="D2" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="G2" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="H2" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -8952,25 +8832,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1318</v>
+        <v>1288</v>
       </c>
       <c r="C3" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="D3" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="G3" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H3" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -8978,25 +8858,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C4" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="D4" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="G4" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="H4" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -9004,25 +8884,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C5" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="D5" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="G5" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="H5" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -9030,25 +8910,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1375</v>
+        <v>1341</v>
       </c>
       <c r="C6" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D6" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="G6" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="H6" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -9056,25 +8936,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1389</v>
+        <v>1355</v>
       </c>
       <c r="C7" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="D7" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="G7" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="H7" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -9082,25 +8962,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1319</v>
+        <v>1289</v>
       </c>
       <c r="C8" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D8" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="G8" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="H8" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -9108,25 +8988,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1388</v>
+        <v>1354</v>
       </c>
       <c r="C9" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="D9" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="G9" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="H9" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -9134,25 +9014,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1317</v>
+        <v>1287</v>
       </c>
       <c r="C10" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D10" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="G10" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="H10" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -9160,25 +9040,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1387</v>
+        <v>1353</v>
       </c>
       <c r="C11" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="D11" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="G11" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="H11" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -9201,7 +9081,7 @@
         <v>0.38993086298402602</v>
       </c>
       <c r="G13" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -9224,7 +9104,7 @@
         <v>0.40794131931920302</v>
       </c>
       <c r="G14" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -9247,7 +9127,7 @@
         <v>0.396837727802345</v>
       </c>
       <c r="G15" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -9270,7 +9150,7 @@
         <v>0.394961840099674</v>
       </c>
       <c r="G16" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -9293,7 +9173,7 @@
         <v>6.1866909746209698E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -9301,7 +9181,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
@@ -9373,7 +9253,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1338</v>
+        <v>1308</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
@@ -9399,7 +9279,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1339</v>
+        <v>1309</v>
       </c>
       <c r="C4" t="s">
         <v>82</v>
@@ -9425,7 +9305,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1340</v>
+        <v>1310</v>
       </c>
       <c r="C5" t="s">
         <v>86</v>
@@ -9451,7 +9331,7 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1341</v>
+        <v>1311</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -9477,7 +9357,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1342</v>
+        <v>1312</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
@@ -9503,7 +9383,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1343</v>
+        <v>1313</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -9529,7 +9409,7 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1344</v>
+        <v>1314</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -9555,7 +9435,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1345</v>
+        <v>1315</v>
       </c>
       <c r="C10" t="s">
         <v>106</v>
@@ -9581,7 +9461,7 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1346</v>
+        <v>1316</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -9768,25 +9648,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C2" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="D2" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="G2" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -9794,25 +9674,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1353</v>
+        <v>1323</v>
       </c>
       <c r="C3" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D3" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="G3" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -9820,25 +9700,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1361</v>
+        <v>1331</v>
       </c>
       <c r="C4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="D4" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="G4" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -9846,25 +9726,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1354</v>
+        <v>1324</v>
       </c>
       <c r="C5" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="D5" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="G5" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -9872,25 +9752,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1359</v>
+        <v>1329</v>
       </c>
       <c r="C6" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="D6" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="G6" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -9898,25 +9778,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1358</v>
+        <v>1328</v>
       </c>
       <c r="C7" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="D7" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="G7" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -9924,25 +9804,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1355</v>
+        <v>1325</v>
       </c>
       <c r="C8" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D8" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="G8" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -9950,25 +9830,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1360</v>
+        <v>1330</v>
       </c>
       <c r="C9" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="D9" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="G9" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -9976,25 +9856,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1356</v>
+        <v>1326</v>
       </c>
       <c r="C10" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D10" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="G10" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -10002,25 +9882,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1357</v>
+        <v>1327</v>
       </c>
       <c r="C11" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="D11" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="G11" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -10043,7 +9923,7 @@
         <v>0.41989077576117501</v>
       </c>
       <c r="G13" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -10066,7 +9946,7 @@
         <v>0.43272693435361498</v>
       </c>
       <c r="G14" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -10089,7 +9969,7 @@
         <v>0.42758789318837698</v>
       </c>
       <c r="G15" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -10112,7 +9992,7 @@
         <v>0.42905816036671601</v>
       </c>
       <c r="G16" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -10135,7 +10015,7 @@
         <v>4.0462683807718502E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -10143,7 +10023,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -10156,7 +10036,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10188,260 +10068,260 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>1297</v>
+      <c r="B2">
+        <v>0.94</v>
       </c>
       <c r="C2" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="D2" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="G2" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="H2" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>956</v>
+      <c r="B3">
+        <v>0.92743500000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D3" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="G3" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="H3" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>1298</v>
+      <c r="B4">
+        <v>0.913636</v>
       </c>
       <c r="C4" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="D4" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="G4" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="H4" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>1303</v>
+      <c r="B5">
+        <v>0.899837</v>
       </c>
       <c r="C5" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="G5" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="H5" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>1301</v>
+      <c r="B6">
+        <v>0.88603799999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="D6" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="G6" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="H6" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>974</v>
+      <c r="B7">
+        <v>0.87223899999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="D7" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="G7" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="H7" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>1299</v>
+      <c r="B8">
+        <v>0.85843999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="D8" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="G8" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="H8" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>1374</v>
+      <c r="B9">
+        <v>0.84464099999999998</v>
       </c>
       <c r="C9" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="D9" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="G9" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="H9" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>1302</v>
+      <c r="B10">
+        <v>0.83084199999999997</v>
       </c>
       <c r="C10" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="D10" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="G10" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="H10" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>1300</v>
+      <c r="B11">
+        <v>0.91704300000000005</v>
       </c>
       <c r="C11" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="D11" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="G11" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="H11" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -10449,7 +10329,8 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>0.82577489999999998</v>
+        <f>MIN(B2:B11)</f>
+        <v>0.83084199999999997</v>
       </c>
       <c r="C13">
         <v>0.93439490445859896</v>
@@ -10464,7 +10345,7 @@
         <v>0.40675044799131499</v>
       </c>
       <c r="G13" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -10472,7 +10353,8 @@
         <v>63</v>
       </c>
       <c r="B14">
-        <v>0.82804949999999999</v>
+        <f>MAX(B2:B11)</f>
+        <v>0.94</v>
       </c>
       <c r="C14">
         <v>0.93564966232001001</v>
@@ -10487,7 +10369,7 @@
         <v>0.41582279295285601</v>
       </c>
       <c r="G14" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -10495,7 +10377,8 @@
         <v>64</v>
       </c>
       <c r="B15">
-        <v>0.82717088999999999</v>
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.88901509999999995</v>
       </c>
       <c r="C15">
         <v>0.93510929312891999</v>
@@ -10510,7 +10393,7 @@
         <v>0.412527724503157</v>
       </c>
       <c r="G15" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -10518,7 +10401,8 @@
         <v>66</v>
       </c>
       <c r="B16">
-        <v>0.82746940000000002</v>
+        <f>MEDIAN(B2:B11)</f>
+        <v>0.89293749999999994</v>
       </c>
       <c r="C16">
         <v>0.93516453168483005</v>
@@ -10533,7 +10417,7 @@
         <v>0.41378627313562899</v>
       </c>
       <c r="G16" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -10541,7 +10425,8 @@
         <v>68</v>
       </c>
       <c r="B17">
-        <v>8.0320341813267502E-4</v>
+        <f>STDEV(B2:B10)</f>
+        <v>3.7566397706076518E-2</v>
       </c>
       <c r="C17">
         <v>4.2466929838545498E-4</v>
@@ -10556,7 +10441,7 @@
         <v>3.2065264678666598E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -10564,7 +10449,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -10610,25 +10495,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="C2" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="D2" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="G2" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="H2" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -10636,25 +10521,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="C3" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="G3" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="H3" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -10662,25 +10547,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C4" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="D4" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="G4" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="H4" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -10688,25 +10573,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1278</v>
+        <v>1262</v>
       </c>
       <c r="C5" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="D5" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="G5" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="H5" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -10714,25 +10599,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1277</v>
+        <v>1261</v>
       </c>
       <c r="C6" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="D6" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="G6" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="H6" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -10740,25 +10625,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1276</v>
+        <v>1260</v>
       </c>
       <c r="C7" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="D7" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="G7" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="H7" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -10766,25 +10651,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1275</v>
+        <v>1259</v>
       </c>
       <c r="C8" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="D8" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="G8" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="H8" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -10792,25 +10677,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="C9" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="D9" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="G9" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="H9" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -10818,25 +10703,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1274</v>
+        <v>1258</v>
       </c>
       <c r="C10" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="D10" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="G10" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="H10" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -10844,25 +10729,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1273</v>
+        <v>1257</v>
       </c>
       <c r="C11" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="D11" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="G11" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="H11" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -10885,7 +10770,7 @@
         <v>0.374497108692257</v>
       </c>
       <c r="G13" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -10908,7 +10793,7 @@
         <v>0.413196217031708</v>
       </c>
       <c r="G14" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -10931,7 +10816,7 @@
         <v>0.394301643722623</v>
       </c>
       <c r="G15" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -10954,7 +10839,7 @@
         <v>0.39575188861830901</v>
       </c>
       <c r="G16" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -10977,7 +10862,7 @@
         <v>1.11623949320603E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -10985,7 +10870,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
     </row>
   </sheetData>
@@ -10997,7 +10882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -11031,25 +10916,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1279</v>
+        <v>1367</v>
       </c>
       <c r="C2" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="G2" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="H2" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -11057,25 +10942,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1060</v>
+        <v>1368</v>
       </c>
       <c r="C3" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="D3" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="G3" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="H3" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -11083,25 +10968,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1284</v>
+        <v>1267</v>
       </c>
       <c r="C4" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="D4" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="G4" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="H4" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -11109,25 +10994,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1281</v>
+        <v>1264</v>
       </c>
       <c r="C5" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="D5" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="G5" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="H5" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -11135,25 +11020,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1283</v>
+        <v>1266</v>
       </c>
       <c r="C6" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="D6" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="G6" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="H6" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -11161,25 +11046,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="C7" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="D7" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="G7" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="H7" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -11187,25 +11072,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C8" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="D8" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="G8" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="H8" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -11213,25 +11098,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="D9" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="G9" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="H9" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -11239,25 +11124,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1280</v>
+        <v>1263</v>
       </c>
       <c r="C10" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="D10" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="G10" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="H10" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -11265,25 +11150,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1282</v>
+        <v>1265</v>
       </c>
       <c r="C11" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="D11" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="G11" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="H11" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -11306,7 +11191,7 @@
         <v>0.39015902089434401</v>
       </c>
       <c r="G13" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -11329,7 +11214,7 @@
         <v>0.39480001251103197</v>
       </c>
       <c r="G14" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -11352,7 +11237,7 @@
         <v>0.39191236029245502</v>
       </c>
       <c r="G15" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -11375,7 +11260,7 @@
         <v>0.39166144941023501</v>
       </c>
       <c r="G16" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -11398,7 +11283,7 @@
         <v>1.27521659363033E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -11406,7 +11291,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
     </row>
   </sheetData>
@@ -11452,25 +11337,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1333</v>
+        <v>1303</v>
       </c>
       <c r="C2" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="D2" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="G2" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="H2" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -11478,25 +11363,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="D3" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="G3" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="H3" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -11504,25 +11389,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1334</v>
+        <v>1304</v>
       </c>
       <c r="C4" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="D4" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="G4" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="H4" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -11530,25 +11415,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="C5" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="D5" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="G5" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="H5" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -11556,25 +11441,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="C6" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="D6" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="G6" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="H6" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -11582,25 +11467,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1335</v>
+        <v>1305</v>
       </c>
       <c r="C7" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="D7" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="G7" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="H7" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -11608,25 +11493,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="C8" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="D8" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="G8" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="H8" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -11634,25 +11519,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="C9" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="D9" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="G9" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="H9" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -11660,25 +11545,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1337</v>
+        <v>1307</v>
       </c>
       <c r="C10" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="D10" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="G10" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="H10" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -11686,25 +11571,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1336</v>
+        <v>1306</v>
       </c>
       <c r="C11" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="D11" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="G11" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="H11" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -11727,7 +11612,7 @@
         <v>0.35116302813027001</v>
       </c>
       <c r="G13" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -11750,7 +11635,7 @@
         <v>0.48227153135870099</v>
       </c>
       <c r="G14" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -11773,7 +11658,7 @@
         <v>0.39296666476915998</v>
       </c>
       <c r="G15" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -11796,7 +11681,7 @@
         <v>0.39614852438559101</v>
       </c>
       <c r="G16" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -11819,7 +11704,7 @@
         <v>3.5562070415843403E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -11827,7 +11712,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
@@ -11873,25 +11758,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="C2" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="D2" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="G2" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="H2" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -11899,25 +11784,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="C3" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="D3" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="G3" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="H3" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -11925,25 +11810,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="C4" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="D4" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="G4" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="H4" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -11951,25 +11836,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="C5" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="D5" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="G5" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="H5" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -11977,25 +11862,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1316</v>
+        <v>1286</v>
       </c>
       <c r="C6" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="D6" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="G6" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="H6" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -12003,25 +11888,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
       <c r="C7" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="D7" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="G7" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="H7" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -12029,25 +11914,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1315</v>
+        <v>1285</v>
       </c>
       <c r="C8" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="D8" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="G8" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="H8" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -12055,25 +11940,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1314</v>
+        <v>1284</v>
       </c>
       <c r="C9" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="D9" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="G9" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="H9" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -12081,25 +11966,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1313</v>
+        <v>1283</v>
       </c>
       <c r="C10" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="D10" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="G10" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="H10" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -12107,25 +11992,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1312</v>
+        <v>1282</v>
       </c>
       <c r="C11" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="D11" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="G11" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="H11" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -12148,7 +12033,7 @@
         <v>0.38216537799174399</v>
       </c>
       <c r="G13" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -12171,7 +12056,7 @@
         <v>0.44687225402581698</v>
       </c>
       <c r="G14" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -12194,7 +12079,7 @@
         <v>0.42014797218848199</v>
       </c>
       <c r="G15" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -12217,7 +12102,7 @@
         <v>0.42118020700004899</v>
       </c>
       <c r="G16" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -12240,7 +12125,7 @@
         <v>1.6392502320414001E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -12248,7 +12133,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
     </row>
   </sheetData>
@@ -12261,7 +12146,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12296,260 +12181,260 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>1393</v>
+      <c r="B2">
+        <v>0.9473973</v>
       </c>
       <c r="C2" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="D2" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="G2" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="H2" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>1394</v>
+      <c r="B3">
+        <v>0.93860089999999996</v>
       </c>
       <c r="C3" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="D3" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="G3" t="s">
-        <v>1216</v>
+        <v>1205</v>
       </c>
       <c r="H3" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>1395</v>
+      <c r="B4">
+        <v>0.92980450000000003</v>
       </c>
       <c r="C4" t="s">
-        <v>1217</v>
+        <v>1206</v>
       </c>
       <c r="D4" t="s">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>1219</v>
+        <v>1208</v>
       </c>
       <c r="G4" t="s">
-        <v>1220</v>
+        <v>1209</v>
       </c>
       <c r="H4" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>1396</v>
+      <c r="B5">
+        <v>0.9210081</v>
       </c>
       <c r="C5" t="s">
-        <v>1222</v>
+        <v>1211</v>
       </c>
       <c r="D5" t="s">
-        <v>1223</v>
+        <v>1212</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>1224</v>
+        <v>1213</v>
       </c>
       <c r="G5" t="s">
-        <v>1225</v>
+        <v>1214</v>
       </c>
       <c r="H5" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>1397</v>
+      <c r="B6">
+        <v>0.91221169999999996</v>
       </c>
       <c r="C6" t="s">
-        <v>1226</v>
+        <v>1215</v>
       </c>
       <c r="D6" t="s">
-        <v>1227</v>
+        <v>1216</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>1228</v>
+        <v>1217</v>
       </c>
       <c r="G6" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="H6" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>1398</v>
+      <c r="B7">
+        <v>0.90341530000000003</v>
       </c>
       <c r="C7" t="s">
-        <v>1230</v>
+        <v>1219</v>
       </c>
       <c r="D7" t="s">
-        <v>1231</v>
+        <v>1220</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>1232</v>
+        <v>1221</v>
       </c>
       <c r="G7" t="s">
-        <v>1233</v>
+        <v>1222</v>
       </c>
       <c r="H7" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>1399</v>
+      <c r="B8">
+        <v>0.89461889999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>1234</v>
+        <v>1223</v>
       </c>
       <c r="D8" t="s">
-        <v>1235</v>
+        <v>1224</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>1236</v>
+        <v>1225</v>
       </c>
       <c r="G8" t="s">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="H8" t="s">
-        <v>1238</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>1239</v>
+      <c r="B9">
+        <v>0.88582249999999996</v>
       </c>
       <c r="C9" t="s">
-        <v>1240</v>
+        <v>1228</v>
       </c>
       <c r="D9" t="s">
-        <v>1241</v>
+        <v>1229</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>1242</v>
+        <v>1230</v>
       </c>
       <c r="G9" t="s">
-        <v>1243</v>
+        <v>1231</v>
       </c>
       <c r="H9" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>1400</v>
+      <c r="B10">
+        <v>0.87702610000000003</v>
       </c>
       <c r="C10" t="s">
-        <v>1244</v>
+        <v>1232</v>
       </c>
       <c r="D10" t="s">
-        <v>1245</v>
+        <v>1233</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>1246</v>
+        <v>1234</v>
       </c>
       <c r="G10" t="s">
-        <v>1247</v>
+        <v>1235</v>
       </c>
       <c r="H10" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>1401</v>
+      <c r="B11">
+        <v>0.9366989</v>
       </c>
       <c r="C11" t="s">
-        <v>1248</v>
+        <v>1236</v>
       </c>
       <c r="D11" t="s">
-        <v>1249</v>
+        <v>1237</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>1250</v>
+        <v>1238</v>
       </c>
       <c r="G11" t="s">
-        <v>1251</v>
+        <v>1239</v>
       </c>
       <c r="H11" t="s">
-        <v>1221</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -12557,7 +12442,8 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>0.82659130000000003</v>
+        <f>MIN(B2:B11)</f>
+        <v>0.87702610000000003</v>
       </c>
       <c r="C13">
         <v>0.93485241905569405</v>
@@ -12572,7 +12458,7 @@
         <v>0.39782733181191898</v>
       </c>
       <c r="G13" t="s">
-        <v>1252</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -12580,7 +12466,8 @@
         <v>63</v>
       </c>
       <c r="B14">
-        <v>0.82860089999999997</v>
+        <f>MAX(B2:B11)</f>
+        <v>0.9473973</v>
       </c>
       <c r="C14">
         <v>0.93582836760830201</v>
@@ -12595,7 +12482,7 @@
         <v>0.408169635024415</v>
       </c>
       <c r="G14" t="s">
-        <v>1253</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -12603,7 +12490,8 @@
         <v>64</v>
       </c>
       <c r="B15">
-        <v>0.82734708000000001</v>
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.91466041999999992</v>
       </c>
       <c r="C15">
         <v>0.93527466588497299</v>
@@ -12618,7 +12506,7 @@
         <v>0.40369698642903401</v>
       </c>
       <c r="G15" t="s">
-        <v>1254</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -12626,7 +12514,8 @@
         <v>66</v>
       </c>
       <c r="B16">
-        <v>0.82720090000000002</v>
+        <f>MEDIAN(B2:B11)</f>
+        <v>0.91660989999999998</v>
       </c>
       <c r="C16">
         <v>0.93524576961119998</v>
@@ -12641,7 +12530,7 @@
         <v>0.404507597586171</v>
       </c>
       <c r="G16" t="s">
-        <v>1255</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -12649,7 +12538,8 @@
         <v>68</v>
       </c>
       <c r="B17">
-        <v>6.7360818700486701E-4</v>
+        <f>STDEV(B2:B10)</f>
+        <v>2.4089933524192211E-2</v>
       </c>
       <c r="C17">
         <v>2.6197588294344097E-4</v>
@@ -12664,7 +12554,7 @@
         <v>3.0540530984237801E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>1256</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -12672,7 +12562,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>1257</v>
+        <v>1245</v>
       </c>
     </row>
   </sheetData>
@@ -12685,7 +12575,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12717,8 +12607,8 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>1270</v>
+      <c r="B2">
+        <v>0.93366479999999996</v>
       </c>
       <c r="C2" t="s">
         <v>119</v>
@@ -12743,23 +12633,23 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0.92111100000000001</v>
+      </c>
+      <c r="C3" t="s">
         <v>124</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>125</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>126</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>128</v>
       </c>
       <c r="H3" t="s">
         <v>123</v>
@@ -12769,23 +12659,23 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>0.91855719999999996</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>131</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" t="s">
-        <v>133</v>
       </c>
       <c r="H4" t="s">
         <v>123</v>
@@ -12795,23 +12685,23 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>0.92600340000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>134</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" t="s">
-        <v>138</v>
       </c>
       <c r="H5" t="s">
         <v>123</v>
@@ -12821,23 +12711,23 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>0.88344959999999995</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" t="s">
-        <v>143</v>
       </c>
       <c r="H6" t="s">
         <v>123</v>
@@ -12847,23 +12737,23 @@
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>1272</v>
+      <c r="B7">
+        <v>0.90089580000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
         <v>123</v>
@@ -12873,23 +12763,23 @@
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>148</v>
+      <c r="B8">
+        <v>0.90834199999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
         <v>123</v>
@@ -12899,23 +12789,23 @@
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>1372</v>
+      <c r="B9">
+        <v>0.83578819999999998</v>
       </c>
       <c r="C9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
         <v>123</v>
@@ -12925,23 +12815,23 @@
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>1271</v>
+      <c r="B10">
+        <v>0.9132344</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
         <v>123</v>
@@ -12951,26 +12841,26 @@
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>1269</v>
+      <c r="B11">
+        <v>0.92068059999999996</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H11" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -12978,7 +12868,8 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>0.82375030000000005</v>
+        <f>MIN(B2:B11)</f>
+        <v>0.83578819999999998</v>
       </c>
       <c r="C13">
         <v>0.93496201968407999</v>
@@ -12993,7 +12884,7 @@
         <v>0.39511845351136698</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -13001,7 +12892,8 @@
         <v>63</v>
       </c>
       <c r="B14">
-        <v>0.82666340000000005</v>
+        <f>MAX(B2:B11)</f>
+        <v>0.93366479999999996</v>
       </c>
       <c r="C14">
         <v>0.93577030130491401</v>
@@ -13016,7 +12908,7 @@
         <v>0.40181544948093301</v>
       </c>
       <c r="G14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -13024,7 +12916,8 @@
         <v>64</v>
       </c>
       <c r="B15">
-        <v>0.82514213999999997</v>
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.90617269999999994</v>
       </c>
       <c r="C15">
         <v>0.93527883583877103</v>
@@ -13039,7 +12932,7 @@
         <v>0.397978537796085</v>
       </c>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -13047,7 +12940,8 @@
         <v>66</v>
       </c>
       <c r="B16">
-        <v>0.82521644999999999</v>
+        <f>MEDIAN(B2:B11)</f>
+        <v>0.91589579999999993</v>
       </c>
       <c r="C16">
         <v>0.93524508935695305</v>
@@ -13062,7 +12956,7 @@
         <v>0.39776460198858998</v>
       </c>
       <c r="G16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -13070,7 +12964,8 @@
         <v>68</v>
       </c>
       <c r="B17">
-        <v>8.46708770711625E-4</v>
+        <f>STDEV(B2:B10)</f>
+        <v>2.9696276187615032E-2</v>
       </c>
       <c r="C17">
         <v>2.4471548717893099E-4</v>
@@ -13085,7 +12980,7 @@
         <v>1.9832746316849901E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -13093,7 +12988,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -13142,25 +13037,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1267</v>
+        <v>1255</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -13168,25 +13063,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1261</v>
+        <v>1249</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -13194,25 +13089,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1262</v>
+        <v>1250</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -13220,25 +13115,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -13246,25 +13141,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1266</v>
+        <v>1254</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -13272,25 +13167,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -13298,25 +13193,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>1265</v>
+        <v>1253</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -13324,25 +13219,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1260</v>
+        <v>1248</v>
       </c>
       <c r="C9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -13350,25 +13245,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1259</v>
+        <v>1247</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -13376,25 +13271,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1258</v>
+        <v>1246</v>
       </c>
       <c r="C11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -13417,7 +13312,7 @@
         <v>0.37200492773038002</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -13440,7 +13335,7 @@
         <v>0.37826877007077803</v>
       </c>
       <c r="G14" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -13463,7 +13358,7 @@
         <v>0.37538487308860902</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -13486,7 +13381,7 @@
         <v>0.37600134430591298</v>
       </c>
       <c r="G16" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -13509,7 +13404,7 @@
         <v>2.26509411197059E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -13517,7 +13412,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -13563,25 +13458,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1304</v>
+        <v>1274</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -13589,25 +13484,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1291</v>
+        <v>1268</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -13615,25 +13510,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1292</v>
+        <v>1269</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -13641,25 +13536,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G5" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -13667,25 +13562,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1294</v>
+        <v>1271</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -13693,25 +13588,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -13719,25 +13614,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -13745,25 +13640,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1311</v>
+        <v>1281</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -13771,25 +13666,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -13797,25 +13692,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1295</v>
+        <v>1272</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -13838,7 +13733,7 @@
         <v>0.37320088118619099</v>
       </c>
       <c r="G13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -13861,7 +13756,7 @@
         <v>0.412055813044304</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -13884,7 +13779,7 @@
         <v>0.39780710689082999</v>
       </c>
       <c r="G15" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -13907,7 +13802,7 @@
         <v>0.40051035491301501</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -13930,7 +13825,7 @@
         <v>1.1222805800351499E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -13938,7 +13833,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -13984,25 +13879,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H2" t="s">
         <v>267</v>
-      </c>
-      <c r="C2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -14010,25 +13905,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>1291</v>
+        <v>1268</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -14036,25 +13931,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>1292</v>
+        <v>1269</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -14062,25 +13957,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1293</v>
+        <v>1270</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14088,25 +13983,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1294</v>
+        <v>1271</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -14114,25 +14009,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -14140,25 +14035,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -14166,25 +14061,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -14192,25 +14087,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1296</v>
+        <v>1273</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G10" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -14218,25 +14113,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1295</v>
+        <v>1272</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -14259,7 +14154,7 @@
         <v>0.36369972957060498</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -14282,7 +14177,7 @@
         <v>0.40493289662515602</v>
       </c>
       <c r="G14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -14305,7 +14200,7 @@
         <v>0.39398195964407401</v>
       </c>
       <c r="G15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -14328,7 +14223,7 @@
         <v>0.39554616626037498</v>
       </c>
       <c r="G16" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -14351,7 +14246,7 @@
         <v>1.0970931120691699E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -14359,7 +14254,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -14372,7 +14267,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14404,260 +14299,260 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>1289</v>
+      <c r="B2">
+        <v>0.93366479999999996</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>1287</v>
+      <c r="B3">
+        <v>0.92111100000000001</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>1288</v>
+      <c r="B4">
+        <v>0.91855719999999996</v>
       </c>
       <c r="C4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>333</v>
+      <c r="B5">
+        <v>0.92600340000000003</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H5" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>1290</v>
+      <c r="B6">
+        <v>0.90344959999999996</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G6" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
-        <v>342</v>
+      <c r="B7">
+        <v>0.89089580000000002</v>
       </c>
       <c r="C7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
-        <v>1286</v>
+      <c r="B8">
+        <v>0.91834199999999999</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G8" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="H8" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
-        <v>1373</v>
+      <c r="B9">
+        <v>0.83578819999999998</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D9" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G9" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H9" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
-        <v>1285</v>
+      <c r="B10">
+        <v>0.9132344</v>
       </c>
       <c r="C10" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D10" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G10" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H10" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
-        <v>361</v>
+      <c r="B11">
+        <v>0.92068059999999996</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G11" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H11" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -14665,7 +14560,8 @@
         <v>60</v>
       </c>
       <c r="B13">
-        <v>0.8232353</v>
+        <f>MIN(B2:B11)</f>
+        <v>0.83578819999999998</v>
       </c>
       <c r="C13">
         <v>0.93442848815643098</v>
@@ -14680,7 +14576,7 @@
         <v>0.39737762849016001</v>
       </c>
       <c r="G13" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -14688,7 +14584,8 @@
         <v>63</v>
       </c>
       <c r="B14">
-        <v>0.82615510000000003</v>
+        <f>MAX(B2:B11)</f>
+        <v>0.93366479999999996</v>
       </c>
       <c r="C14">
         <v>0.93545411165897896</v>
@@ -14703,7 +14600,7 @@
         <v>0.41743673225028699</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -14711,7 +14608,8 @@
         <v>64</v>
       </c>
       <c r="B15">
-        <v>0.82453578999999999</v>
+        <f>AVERAGE(B2:B11)</f>
+        <v>0.90817270000000005</v>
       </c>
       <c r="C15">
         <v>0.93499020859117199</v>
@@ -14726,7 +14624,7 @@
         <v>0.40573947788479903</v>
       </c>
       <c r="G15" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -14734,7 +14632,8 @@
         <v>66</v>
       </c>
       <c r="B16">
-        <v>0.82430499999999995</v>
+        <f>MEDIAN(B2:B11)</f>
+        <v>0.91844959999999998</v>
       </c>
       <c r="C16">
         <v>0.93508461977721302</v>
@@ -14749,7 +14648,7 @@
         <v>0.40412923758054597</v>
       </c>
       <c r="G16" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -14757,7 +14656,8 @@
         <v>68</v>
       </c>
       <c r="B17">
-        <v>9.5461186191039805E-4</v>
+        <f>STDEV(B2:B10)</f>
+        <v>2.940022463009424E-2</v>
       </c>
       <c r="C17">
         <v>2.6552421231830302E-4</v>
@@ -14772,7 +14672,7 @@
         <v>7.2258252377220703E-3</v>
       </c>
       <c r="G17" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -14780,7 +14680,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -14824,25 +14724,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -14850,25 +14750,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="H3" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -14876,25 +14776,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -14902,25 +14802,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="G5" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="H5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -14928,25 +14828,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H6" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -14954,25 +14854,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -14980,25 +14880,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C8" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D8" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="G8" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="H8" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -15006,25 +14906,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D9" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="G9" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="H9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -15032,25 +14932,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="D10" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G10" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="H10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -15058,25 +14958,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -15099,7 +14999,7 @@
         <v>0.29289321881345298</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -15122,7 +15022,7 @@
         <v>0.59140634213491605</v>
       </c>
       <c r="G14" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -15145,7 +15045,7 @@
         <v>0.35086664610873403</v>
       </c>
       <c r="G15" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -15168,7 +15068,7 @@
         <v>0.308785939983102</v>
       </c>
       <c r="G16" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -15191,7 +15091,7 @@
         <v>9.0015490196954595E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -15199,7 +15099,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -15245,25 +15145,25 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1379</v>
+        <v>1345</v>
       </c>
       <c r="C2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="H2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -15271,25 +15171,25 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D3" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="H3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -15297,25 +15197,25 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H4" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -15323,25 +15223,25 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>1391</v>
+        <v>1357</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D5" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H5" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -15349,25 +15249,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>1386</v>
+        <v>1352</v>
       </c>
       <c r="C6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H6" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -15375,25 +15275,25 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>1385</v>
+        <v>1351</v>
       </c>
       <c r="C7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="H7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -15401,25 +15301,25 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D8" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G8" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="H8" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -15427,25 +15327,25 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1390</v>
+        <v>1356</v>
       </c>
       <c r="C9" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G9" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H9" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -15453,25 +15353,25 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>1377</v>
+        <v>1343</v>
       </c>
       <c r="C10" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G10" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H10" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -15479,25 +15379,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>1376</v>
+        <v>1342</v>
       </c>
       <c r="C11" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="G11" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="H11" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -15520,7 +15420,7 @@
         <v>0.29289321881345298</v>
       </c>
       <c r="G13" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -15543,7 +15443,7 @@
         <v>0.33325323483292502</v>
       </c>
       <c r="G14" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -15566,7 +15466,7 @@
         <v>0.296952419386392</v>
       </c>
       <c r="G15" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -15589,7 +15489,7 @@
         <v>0.29289321881345298</v>
       </c>
       <c r="G16" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -15612,7 +15512,7 @@
         <v>1.21004694925611E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -15620,7 +15520,7 @@
         <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/output/tuning/aggregate-metrics.xlsx
+++ b/output/tuning/aggregate-metrics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20140" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="38400" windowHeight="20140" firstSheet="4" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="nb" sheetId="1" r:id="rId1"/>
@@ -3434,9 +3434,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -3743,11 +3744,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -4036,7 +4041,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.75778500000000004</v>
       </c>
@@ -4060,7 +4065,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.81318979999999996</v>
       </c>
@@ -4084,7 +4089,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.78802459999999996</v>
       </c>
@@ -4108,7 +4113,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.79163620000000001</v>
       </c>
@@ -4132,7 +4137,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>2.0104078184399396E-2</v>
       </c>
@@ -4169,7 +4174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -4462,7 +4467,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.73479559999999999</v>
       </c>
@@ -4486,7 +4491,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.8443522</v>
       </c>
@@ -4510,7 +4515,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.80735370000000017</v>
       </c>
@@ -4534,7 +4539,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.80936005</v>
       </c>
@@ -4558,7 +4563,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>2.9451621695964759E-2</v>
       </c>
@@ -4595,8 +4600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4888,7 +4893,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.7367629</v>
       </c>
@@ -4912,7 +4917,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.83615910000000004</v>
       </c>
@@ -4936,7 +4941,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.79984536999999989</v>
       </c>
@@ -4960,7 +4965,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.80625459999999993</v>
       </c>
@@ -4984,7 +4989,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>3.1917248719463762E-2</v>
       </c>
@@ -5021,8 +5026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5314,7 +5319,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.73560159999999997</v>
       </c>
@@ -5338,7 +5343,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.80439870000000002</v>
       </c>
@@ -5362,7 +5367,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.7778436299999999</v>
       </c>
@@ -5386,7 +5391,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.7818257500000001</v>
       </c>
@@ -5410,7 +5415,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>2.1796260657076547E-2</v>
       </c>
@@ -5447,8 +5452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5740,7 +5745,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.73560159999999997</v>
       </c>
@@ -5764,7 +5769,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.81439870000000003</v>
       </c>
@@ -5788,7 +5793,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.78284363000000001</v>
       </c>
@@ -5812,7 +5817,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.7818257500000001</v>
       </c>
@@ -5836,7 +5841,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>2.3773378686816445E-2</v>
       </c>
@@ -5873,8 +5878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6166,7 +6171,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.56660319999999997</v>
       </c>
@@ -6190,7 +6195,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.6718383</v>
       </c>
@@ -6214,7 +6219,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.59407936000000006</v>
       </c>
@@ -6238,7 +6243,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.57281145</v>
       </c>
@@ -6262,7 +6267,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>4.1045394657465671E-2</v>
       </c>
@@ -6299,8 +6304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6592,7 +6597,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.67044970000000004</v>
       </c>
@@ -6616,7 +6621,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.7265855</v>
       </c>
@@ -6640,7 +6645,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.7121134899999999</v>
       </c>
@@ -6664,7 +6669,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.72249675000000002</v>
       </c>
@@ -6688,7 +6693,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>1.9794154982297738E-2</v>
       </c>
@@ -6725,8 +6730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7021,7 +7026,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.79466460000000005</v>
       </c>
@@ -7045,7 +7050,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.8443522</v>
       </c>
@@ -7069,7 +7074,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.81629752000000022</v>
       </c>
@@ -7093,7 +7098,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.81397205000000006</v>
       </c>
@@ -7117,7 +7122,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>1.5627615574915227E-2</v>
       </c>
@@ -7154,8 +7159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7447,7 +7452,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.70496519999999996</v>
       </c>
@@ -7471,7 +7476,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.72690169999999998</v>
       </c>
@@ -7495,7 +7500,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.71173732000000001</v>
       </c>
@@ -7519,7 +7524,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.70889519999999995</v>
       </c>
@@ -7543,7 +7548,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>7.2000685740252982E-3</v>
       </c>
@@ -7580,8 +7585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7873,7 +7878,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.61529860000000003</v>
       </c>
@@ -7897,7 +7902,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.67389160000000004</v>
       </c>
@@ -7921,7 +7926,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.64370098999999992</v>
       </c>
@@ -7945,7 +7950,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.64216999999999991</v>
       </c>
@@ -7969,7 +7974,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>2.0523272238469496E-2</v>
       </c>
@@ -8006,8 +8011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8299,7 +8304,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.76823859999999999</v>
       </c>
@@ -8323,7 +8328,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.83836010000000005</v>
       </c>
@@ -8347,7 +8352,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.80647566100000001</v>
       </c>
@@ -8371,7 +8376,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.81059075000000003</v>
       </c>
@@ -8395,7 +8400,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>2.1999605854092767E-2</v>
       </c>
@@ -8432,7 +8437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="137" zoomScaleNormal="137" zoomScalePageLayoutView="137" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -8725,7 +8730,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.7404579</v>
       </c>
@@ -8749,7 +8754,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.78047489999999997</v>
       </c>
@@ -8773,7 +8778,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.76278758000000002</v>
       </c>
@@ -8797,7 +8802,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.76382240000000001</v>
       </c>
@@ -8821,7 +8826,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>1.1160594600547849E-2</v>
       </c>
@@ -8858,8 +8863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9151,7 +9156,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.64800058999999999</v>
       </c>
@@ -9175,7 +9180,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.78945730000000003</v>
       </c>
@@ -9199,7 +9204,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.729795953</v>
       </c>
@@ -9223,7 +9228,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.72684287000000003</v>
       </c>
@@ -9247,7 +9252,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>4.6484186367348884E-2</v>
       </c>
@@ -9284,8 +9289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9577,7 +9582,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.83084199999999997</v>
       </c>
@@ -9601,7 +9606,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.94</v>
       </c>
@@ -9625,7 +9630,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.88901509999999995</v>
       </c>
@@ -9649,7 +9654,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.89293749999999994</v>
       </c>
@@ -9673,7 +9678,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>3.7566397706076518E-2</v>
       </c>
@@ -9710,8 +9715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10003,7 +10008,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.79237060000000004</v>
       </c>
@@ -10027,7 +10032,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.82441960000000003</v>
       </c>
@@ -10051,7 +10056,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.81230584999999988</v>
       </c>
@@ -10075,7 +10080,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.81274605</v>
       </c>
@@ -10099,7 +10104,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>1.1346521437598789E-2</v>
       </c>
@@ -10136,8 +10141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10429,7 +10434,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.79197640000000002</v>
       </c>
@@ -10453,7 +10458,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.88244979999999995</v>
       </c>
@@ -10477,7 +10482,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.83240179999999986</v>
       </c>
@@ -10501,7 +10506,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.82791550000000003</v>
       </c>
@@ -10525,7 +10530,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>2.8251664462116202E-2</v>
       </c>
@@ -10562,8 +10567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10855,7 +10860,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.71387820000000002</v>
       </c>
@@ -10879,7 +10884,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.75190120000000005</v>
       </c>
@@ -10903,7 +10908,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.73957779000000001</v>
       </c>
@@ -10927,7 +10932,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.74125854999999996</v>
       </c>
@@ -10951,7 +10956,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>1.1166238960908504E-2</v>
       </c>
@@ -10988,8 +10993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11281,7 +11286,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.78813250000000001</v>
       </c>
@@ -11305,7 +11310,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.82803280000000001</v>
       </c>
@@ -11329,7 +11334,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.81238045000000003</v>
       </c>
@@ -11353,7 +11358,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.81779715000000008</v>
       </c>
@@ -11377,7 +11382,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>1.1648015338364638E-2</v>
       </c>
@@ -11414,8 +11419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11710,7 +11715,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.87702610000000003</v>
       </c>
@@ -11734,7 +11739,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.9473973</v>
       </c>
@@ -11758,7 +11763,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.91466041999999992</v>
       </c>
@@ -11782,7 +11787,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.91660989999999998</v>
       </c>
@@ -11806,7 +11811,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>2.4089933524192211E-2</v>
       </c>
@@ -11844,7 +11849,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12059,7 +12064,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.83578819999999998</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -12136,9 +12141,9 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
-        <v>0.83578819999999998</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="C13">
         <v>0.93496201968407999</v>
@@ -12160,7 +12165,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.93366479999999996</v>
       </c>
@@ -12184,9 +12189,9 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>0.90617269999999994</v>
+        <v>0.90599387999999992</v>
       </c>
       <c r="C15">
         <v>0.93527883583877103</v>
@@ -12208,7 +12213,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.91589579999999993</v>
       </c>
@@ -12232,9 +12237,9 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
-        <v>2.9696276187615032E-2</v>
+        <v>3.0215374662155774E-2</v>
       </c>
       <c r="C17">
         <v>2.4471548717893099E-4</v>
@@ -12269,7 +12274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -12565,7 +12570,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.77297579999999999</v>
       </c>
@@ -12589,7 +12594,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.80517490000000003</v>
       </c>
@@ -12613,7 +12618,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.79325712000000004</v>
       </c>
@@ -12637,7 +12642,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.79805609999999993</v>
       </c>
@@ -12661,7 +12666,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>1.1447934943958739E-2</v>
       </c>
@@ -12698,7 +12703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -12991,7 +12996,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.80373600000000001</v>
       </c>
@@ -13015,7 +13020,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.83393390000000001</v>
       </c>
@@ -13039,7 +13044,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.81829752</v>
       </c>
@@ -13063,7 +13068,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.81936005000000001</v>
       </c>
@@ -13087,7 +13092,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>1.1117234852970906E-2</v>
       </c>
@@ -13124,7 +13129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -13417,7 +13422,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.80373600000000001</v>
       </c>
@@ -13441,7 +13446,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.82651569999999996</v>
       </c>
@@ -13465,7 +13470,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.81529752</v>
       </c>
@@ -13489,7 +13494,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.81488120000000008</v>
       </c>
@@ -13513,7 +13518,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>8.4232759329596774E-3</v>
       </c>
@@ -13550,7 +13555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -13843,7 +13848,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.83578819999999998</v>
       </c>
@@ -13867,7 +13872,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.93366479999999996</v>
       </c>
@@ -13891,7 +13896,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.90817270000000005</v>
       </c>
@@ -13915,7 +13920,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.91844959999999998</v>
       </c>
@@ -13939,7 +13944,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>2.940022463009424E-2</v>
       </c>
@@ -13976,7 +13981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="146" zoomScaleNormal="146" zoomScalePageLayoutView="146" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -14269,7 +14274,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.76858709999999997</v>
       </c>
@@ -14293,7 +14298,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.79848759999999996</v>
       </c>
@@ -14317,7 +14322,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.78620862000000002</v>
       </c>
@@ -14341,7 +14346,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.78653225000000004</v>
       </c>
@@ -14365,7 +14370,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B10)</f>
         <v>1.0047093014869741E-2</v>
       </c>
@@ -14402,7 +14407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="B13" sqref="B13:B17"/>
     </sheetView>
   </sheetViews>
@@ -14695,7 +14700,7 @@
       <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>MIN(B2:B11)</f>
         <v>0.70656949999999996</v>
       </c>
@@ -14719,7 +14724,7 @@
       <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>MAX(B2:B11)</f>
         <v>0.83795730000000002</v>
       </c>
@@ -14743,7 +14748,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>AVERAGE(B2:B11)</f>
         <v>0.79930133000000014</v>
       </c>
@@ -14767,7 +14772,7 @@
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>MEDIAN(B2:B11)</f>
         <v>0.80814344999999999</v>
       </c>
@@ -14791,7 +14796,7 @@
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>STDEV(B2:B11)</f>
         <v>3.7117367913598688E-2</v>
       </c>
